--- a/1_MNIST/DL_Lecture/Evaluation result_Homework1.xlsx
+++ b/1_MNIST/DL_Lecture/Evaluation result_Homework1.xlsx
@@ -19,11 +19,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="30">
+<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="32">
   <x:si>
     <x:t>adam</x:t>
   </x:si>
   <x:si>
+    <x:t>Setting#3</x:t>
+  </x:si>
+  <x:si>
     <x:t>Learning rate</x:t>
   </x:si>
   <x:si>
@@ -36,9 +39,6 @@
     <x:t>3.45 minutes</x:t>
   </x:si>
   <x:si>
-    <x:t>Setting #1 다른 설정과 비교하기 위한 기준점(Baseline)으로, 추가 기법 없이 기본 파라미터로만 학습 Setting#2 기준점에서 Layer 개수를 4개로 확장</x:t>
-  </x:si>
-  <x:si>
     <x:t>Xavier Normal</x:t>
   </x:si>
   <x:si>
@@ -99,6 +99,11 @@
     <x:t>…</x:t>
   </x:si>
   <x:si>
+    <x:t>Setting #1 다른 설정과 비교하기 위한 기준점(Baseline)으로, 추가 기법 없이 기본 파라미터로만 학습
+ Setting#2 기준점에서 Layer 개수를 4개로 확장 
+Setting #3 (Setting#3에서 dropout 0.5 를 적용)</x:t>
+  </x:si>
+  <x:si>
     <x:t>None</x:t>
   </x:si>
   <x:si>
@@ -106,6 +111,9 @@
   </x:si>
   <x:si>
     <x:t xml:space="preserve">(300 → 200 → 100 → 10)	</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3.36 minutes</x:t>
   </x:si>
   <x:si>
     <x:t>ReLU</x:t>
@@ -396,7 +404,7 @@
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="35">
+  <x:cellXfs count="36">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
@@ -742,6 +750,19 @@
         </x:xf>
       </mc:Fallback>
     </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center" wrapText="1"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center" wrapText="1"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
   </x:cellXfs>
   <x:cellStyles count="1">
     <x:cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -751,7 +772,7 @@
 </x:styleSheet>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -1195,7 +1216,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1341320" y="8962625"/>
+          <a:off x="1343025" y="8963025"/>
           <a:ext cx="7178792" cy="2895700"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1233,7 +1254,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9354926" y="8962625"/>
+          <a:off x="9353550" y="8963025"/>
           <a:ext cx="6572384" cy="2705603"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1271,7 +1292,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9344024" y="11763879"/>
+          <a:off x="9344025" y="11763375"/>
           <a:ext cx="6583287" cy="2588152"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1309,8 +1330,84 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1341320" y="11763879"/>
+          <a:off x="1343025" y="11763375"/>
           <a:ext cx="7222420" cy="2843472"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData fLocksWithSheet="1" fPrintsWithSheet="1"/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>685799</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>342899</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>123824</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic macro="" fPublished="0">
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="30" name="그림 29"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1343024" y="15725777"/>
+          <a:ext cx="7177087" cy="2904565"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData fLocksWithSheet="1" fPrintsWithSheet="1"/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>704850</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>102</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic macro="" fPublished="0">
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="31" name="그림 30"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1365691" y="18635924"/>
+          <a:ext cx="7177087" cy="2812812"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1613,10 +1710,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetPr codeName="Sheet1"/>
-  <x:dimension ref="B2:O42"/>
+  <x:dimension ref="B2:O74"/>
   <x:sheetViews>
-    <x:sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="75" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <x:selection activeCell="S4" activeCellId="0" sqref="S4:S4"/>
+    <x:sheetView tabSelected="1" topLeftCell="B46" zoomScaleNormal="75" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <x:selection activeCell="K79" activeCellId="0" sqref="K79:K79"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="9.00390625" defaultRowHeight="16.39999999999999857891"/>
@@ -1669,7 +1766,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="F3" s="4" t="s">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G3" s="4" t="s">
         <x:v>20</x:v>
@@ -1687,7 +1784,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="L3" s="4" t="s">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="M3" s="4" t="s">
         <x:v>12</x:v>
@@ -1707,7 +1804,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="D4" s="2" t="s">
-        <x:v>29</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="E4" s="2">
         <x:v>30</x:v>
@@ -1719,7 +1816,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="H4" s="28" t="s">
-        <x:v>27</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="I4" s="2" t="s">
         <x:v>0</x:v>
@@ -1731,13 +1828,13 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="L4" s="2" t="s">
-        <x:v>26</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="M4" s="2" t="s">
-        <x:v>26</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="N4" s="7" t="s">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="O4" s="18">
         <x:v>0.98069999999999991</x:v>
@@ -1751,7 +1848,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="D5" s="2" t="s">
-        <x:v>29</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="E5" s="2">
         <x:v>30</x:v>
@@ -1763,7 +1860,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="H5" s="28" t="s">
-        <x:v>28</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="I5" s="2" t="s">
         <x:v>0</x:v>
@@ -1775,13 +1872,13 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="L5" s="2" t="s">
-        <x:v>26</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="M5" s="2" t="s">
-        <x:v>26</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="N5" s="7" t="s">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="O5" s="18">
         <x:v>0.97989999999999999</x:v>
@@ -1795,7 +1892,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="D6" s="2" t="s">
-        <x:v>29</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="E6" s="2">
         <x:v>30</x:v>
@@ -1807,7 +1904,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="H6" s="28" t="s">
-        <x:v>28</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="I6" s="2" t="s">
         <x:v>0</x:v>
@@ -1822,13 +1919,13 @@
         <x:v>0.5</x:v>
       </x:c>
       <x:c r="M6" s="2" t="s">
-        <x:v>26</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="N6" s="7" t="s">
-        <x:v>4</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="O6" s="18">
-        <x:v>0.97989999999999999</x:v>
+        <x:v>0.98060000000000003</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="2:15">
@@ -1928,8 +2025,8 @@
       <x:c r="O12" s="1"/>
     </x:row>
     <x:row r="13" spans="2:15" ht="15.75" customHeight="1">
-      <x:c r="B13" s="29" t="s">
-        <x:v>5</x:v>
+      <x:c r="B13" s="35" t="s">
+        <x:v>26</x:v>
       </x:c>
       <x:c r="C13" s="30"/>
       <x:c r="D13" s="30"/>
@@ -2232,6 +2329,11 @@
         <x:v>23</x:v>
       </x:c>
     </x:row>
+    <x:row r="74" spans="4:4">
+      <x:c r="D74" t="s">
+        <x:v>1</x:v>
+      </x:c>
+    </x:row>
   </x:sheetData>
   <x:mergeCells count="3">
     <x:mergeCell ref="B2:O2"/>

--- a/1_MNIST/DL_Lecture/Evaluation result_Homework1.xlsx
+++ b/1_MNIST/DL_Lecture/Evaluation result_Homework1.xlsx
@@ -19,92 +19,106 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="32">
+<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="36">
   <x:si>
     <x:t>adam</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Setting#3</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Learning rate</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Dropout rate</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3.44 minutes</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3.45 minutes</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Xavier Normal</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Validation dataset accuracy plot</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Activation function</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Weight Decay lambda</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Training time (m)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Epoch</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Early Stopping epoch</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MNIST Evaluation Report</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Weight Initialization</x:t>
-  </x:si>
-  <x:si>
-    <x:t>[ 결과 정리 ]</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Batch_size</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">Accuracy </x:t>
-  </x:si>
-  <x:si>
-    <x:t>Optimizer</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Setting #1</x:t>
-  </x:si>
-  <x:si>
-    <x:t># of layers</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Setting #4</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Layer size</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Setting #2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Setting #3</x:t>
-  </x:si>
-  <x:si>
-    <x:t>…</x:t>
   </x:si>
   <x:si>
     <x:t>Setting #1 다른 설정과 비교하기 위한 기준점(Baseline)으로, 추가 기법 없이 기본 파라미터로만 학습
  Setting#2 기준점에서 Layer 개수를 4개로 확장 
-Setting #3 (Setting#3에서 dropout 0.5 를 적용)</x:t>
+Setting #3 (Setting#3)에서 dropout 0.5 를 적용
+Setting#4 (Setting#3) 에서 Xavier -&gt; He Initialzation 적용
+Setting#5 (Setting#4) 에서 Early Stopping epoch 를 5로 적용</x:t>
+  </x:si>
+  <x:si>
+    <x:t>He (Kaiming) Normal</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Setting#3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Learning rate</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Dropout rate</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3.48 minutes</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3.44 minutes</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3.45 minutes</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Xavier Normal</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Validation dataset accuracy plot</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Activation function</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Weight Decay lambda</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Training time (m)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Epoch</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Early Stopping epoch</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MNIST Evaluation Report</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Weight Initialization</x:t>
+  </x:si>
+  <x:si>
+    <x:t>[ 결과 정리 ]</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Batch_size</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Accuracy </x:t>
+  </x:si>
+  <x:si>
+    <x:t>Optimizer</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Setting #1</x:t>
+  </x:si>
+  <x:si>
+    <x:t># of layers</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Setting #4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Layer size</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Setting #2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Setting #3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Setting#4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>…</x:t>
   </x:si>
   <x:si>
     <x:t>None</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Setting #5</x:t>
   </x:si>
   <x:si>
     <x:t>300-&gt;200-&gt;10</x:t>
@@ -772,7 +786,7 @@
 </x:styleSheet>
 </file>
 
-<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -1267,15 +1281,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>1171575</xdr:colOff>
+      <xdr:colOff>1181100</xdr:colOff>
       <xdr:row>55</xdr:row>
-      <xdr:rowOff>171449</xdr:rowOff>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>68</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic macro="" fPublished="0">
       <xdr:nvPicPr>
@@ -1292,7 +1306,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9344025" y="11763375"/>
+          <a:off x="9353550" y="11668628"/>
           <a:ext cx="6583287" cy="2588152"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1408,6 +1422,82 @@
         <a:xfrm>
           <a:off x="1365691" y="18635924"/>
           <a:ext cx="7177087" cy="2812812"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData fLocksWithSheet="1" fPrintsWithSheet="1"/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>1181100</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>885825</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>171449</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic macro="" fPublished="0">
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="32" name="그림 31"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9353550" y="15725778"/>
+          <a:ext cx="7001211" cy="2741475"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData fLocksWithSheet="1" fPrintsWithSheet="1"/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>1181100</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>171449</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>838200</xdr:colOff>
+      <xdr:row>101</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic macro="" fPublished="0">
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="33" name="그림 32"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9353550" y="18467254"/>
+          <a:ext cx="6953250" cy="2773967"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1712,8 +1802,8 @@
   <x:sheetPr codeName="Sheet1"/>
   <x:dimension ref="B2:O74"/>
   <x:sheetViews>
-    <x:sheetView tabSelected="1" topLeftCell="B46" zoomScaleNormal="75" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <x:selection activeCell="K79" activeCellId="0" sqref="K79:K79"/>
+    <x:sheetView tabSelected="1" topLeftCell="A1" zoomScaleNormal="75" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <x:selection activeCell="P15" activeCellId="0" sqref="P15:P15"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="9.00390625" defaultRowHeight="16.39999999999999857891"/>
@@ -1738,7 +1828,7 @@
   <x:sheetData>
     <x:row r="2" spans="2:15" ht="29.94999999999999928946">
       <x:c r="B2" s="22" t="s">
-        <x:v>13</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="C2" s="23"/>
       <x:c r="D2" s="23"/>
@@ -1757,54 +1847,54 @@
     <x:row r="3" spans="2:15" ht="16.75">
       <x:c r="B3" s="3"/>
       <x:c r="C3" s="4" t="s">
-        <x:v>16</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="D3" s="4" t="s">
-        <x:v>8</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="E3" s="4" t="s">
-        <x:v>11</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="F3" s="4" t="s">
-        <x:v>2</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="G3" s="4" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="H3" s="4" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="I3" s="4" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="J3" s="4" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="K3" s="4" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="L3" s="4" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="M3" s="4" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="N3" s="4" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="O3" s="5" t="s">
         <x:v>20</x:v>
-      </x:c>
-      <x:c r="H3" s="4" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="I3" s="4" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="J3" s="4" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="K3" s="4" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="L3" s="4" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="M3" s="4" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="N3" s="4" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="O3" s="5" t="s">
-        <x:v>17</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="2:15">
       <x:c r="B4" s="6" t="s">
-        <x:v>19</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="C4" s="2">
         <x:v>64</x:v>
       </x:c>
       <x:c r="D4" s="2" t="s">
-        <x:v>31</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="E4" s="2">
         <x:v>30</x:v>
@@ -1816,7 +1906,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="H4" s="28" t="s">
-        <x:v>28</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="I4" s="2" t="s">
         <x:v>0</x:v>
@@ -1825,16 +1915,16 @@
         <x:v>0.00010000000000000001</x:v>
       </x:c>
       <x:c r="K4" s="2" t="s">
-        <x:v>6</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="L4" s="2" t="s">
-        <x:v>27</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="M4" s="2" t="s">
-        <x:v>27</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="N4" s="7" t="s">
-        <x:v>4</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="O4" s="18">
         <x:v>0.98069999999999991</x:v>
@@ -1842,13 +1932,13 @@
     </x:row>
     <x:row r="5" spans="2:15">
       <x:c r="B5" s="6" t="s">
-        <x:v>23</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="C5" s="2">
         <x:v>64</x:v>
       </x:c>
       <x:c r="D5" s="2" t="s">
-        <x:v>31</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="E5" s="2">
         <x:v>30</x:v>
@@ -1860,7 +1950,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="H5" s="28" t="s">
-        <x:v>29</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="I5" s="2" t="s">
         <x:v>0</x:v>
@@ -1869,16 +1959,16 @@
         <x:v>0.00010000000000000001</x:v>
       </x:c>
       <x:c r="K5" s="2" t="s">
-        <x:v>6</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="L5" s="2" t="s">
-        <x:v>27</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="M5" s="2" t="s">
-        <x:v>27</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="N5" s="7" t="s">
-        <x:v>5</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="O5" s="18">
         <x:v>0.97989999999999999</x:v>
@@ -1886,13 +1976,13 @@
     </x:row>
     <x:row r="6" spans="2:15">
       <x:c r="B6" s="6" t="s">
-        <x:v>24</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="C6" s="2">
         <x:v>64</x:v>
       </x:c>
       <x:c r="D6" s="2" t="s">
-        <x:v>31</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="E6" s="2">
         <x:v>30</x:v>
@@ -1904,7 +1994,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="H6" s="28" t="s">
-        <x:v>29</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="I6" s="2" t="s">
         <x:v>0</x:v>
@@ -1913,16 +2003,16 @@
         <x:v>0.00010000000000000001</x:v>
       </x:c>
       <x:c r="K6" s="2" t="s">
-        <x:v>6</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="L6" s="2">
         <x:v>0.5</x:v>
       </x:c>
       <x:c r="M6" s="2" t="s">
-        <x:v>27</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="N6" s="7" t="s">
-        <x:v>30</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="O6" s="18">
         <x:v>0.98060000000000003</x:v>
@@ -1930,37 +2020,91 @@
     </x:row>
     <x:row r="7" spans="2:15">
       <x:c r="B7" s="6" t="s">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c r="C7" s="2"/>
-      <x:c r="D7" s="2"/>
-      <x:c r="E7" s="2"/>
-      <x:c r="F7" s="2"/>
-      <x:c r="G7" s="2"/>
-      <x:c r="H7" s="2"/>
-      <x:c r="I7" s="2"/>
-      <x:c r="J7" s="2"/>
-      <x:c r="K7" s="2"/>
-      <x:c r="L7" s="2"/>
-      <x:c r="M7" s="2"/>
-      <x:c r="N7" s="7"/>
-      <x:c r="O7" s="18"/>
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="C7" s="2">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="D7" s="2" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="E7" s="2">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="F7" s="27">
+        <x:v>0.0010000000000000001</x:v>
+      </x:c>
+      <x:c r="G7" s="2">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="H7" s="28" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="I7" s="2" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="J7" s="27">
+        <x:v>0.00010000000000000001</x:v>
+      </x:c>
+      <x:c r="K7" s="2" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="L7" s="2">
+        <x:v>0.5</x:v>
+      </x:c>
+      <x:c r="M7" s="2" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="N7" s="7" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="O7" s="18">
+        <x:v>0.97999999999999998</x:v>
+      </x:c>
     </x:row>
     <x:row r="8" spans="2:15">
-      <x:c r="B8" s="6"/>
-      <x:c r="C8" s="2"/>
-      <x:c r="D8" s="2"/>
-      <x:c r="E8" s="2"/>
-      <x:c r="F8" s="2"/>
-      <x:c r="G8" s="2"/>
-      <x:c r="H8" s="2"/>
-      <x:c r="I8" s="2"/>
-      <x:c r="J8" s="2"/>
-      <x:c r="K8" s="2"/>
-      <x:c r="L8" s="2"/>
-      <x:c r="M8" s="2"/>
-      <x:c r="N8" s="7"/>
-      <x:c r="O8" s="18"/>
+      <x:c r="B8" s="6" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="C8" s="2">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="D8" s="2" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="E8" s="2">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="F8" s="27">
+        <x:v>0.0010000000000000001</x:v>
+      </x:c>
+      <x:c r="G8" s="2">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="H8" s="28" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="I8" s="2" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="J8" s="27">
+        <x:v>0.00010000000000000001</x:v>
+      </x:c>
+      <x:c r="K8" s="2" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="L8" s="2">
+        <x:v>0.5</x:v>
+      </x:c>
+      <x:c r="M8" s="2">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="N8" s="7" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="O8" s="18">
+        <x:v>0.97999999999999998</x:v>
+      </x:c>
     </x:row>
     <x:row r="9" spans="2:15">
       <x:c r="B9" s="6"/>
@@ -1996,7 +2140,7 @@
     </x:row>
     <x:row r="11" spans="2:15">
       <x:c r="B11" s="6" t="s">
-        <x:v>25</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="C11" s="20"/>
       <x:c r="D11" s="20"/>
@@ -2014,7 +2158,7 @@
     </x:row>
     <x:row r="12" spans="2:15" ht="15.75" customHeight="1">
       <x:c r="B12" s="25" t="s">
-        <x:v>7</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C12" s="26"/>
       <x:c r="D12" s="26"/>
@@ -2026,7 +2170,7 @@
     </x:row>
     <x:row r="13" spans="2:15" ht="15.75" customHeight="1">
       <x:c r="B13" s="35" t="s">
-        <x:v>26</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="C13" s="30"/>
       <x:c r="D13" s="30"/>
@@ -2188,7 +2332,7 @@
     </x:row>
     <x:row r="23" spans="2:15" ht="16.75">
       <x:c r="B23" s="16" t="s">
-        <x:v>15</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="C23" s="8"/>
       <x:c r="D23" s="8"/>
@@ -2323,15 +2467,18 @@
     </x:row>
     <x:row r="42" spans="4:11">
       <x:c r="D42" t="s">
-        <x:v>19</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="K42" t="s">
-        <x:v>23</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="74" spans="4:4">
+        <x:v>26</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="74" spans="4:11">
       <x:c r="D74" t="s">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="K74" t="s">
+        <x:v>28</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/1_MNIST/DL_Lecture/Evaluation result_Homework1.xlsx
+++ b/1_MNIST/DL_Lecture/Evaluation result_Homework1.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <x:bookViews>
-    <x:workbookView xWindow="0" yWindow="0" windowWidth="32445" windowHeight="16725" tabRatio="500"/>
+    <x:workbookView xWindow="0" yWindow="0" windowWidth="4294939905" windowHeight="16725" tabRatio="500"/>
   </x:bookViews>
   <x:sheets>
     <x:sheet name="Sheet1" sheetId="1" r:id="rId4"/>
@@ -19,125 +19,338 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="36">
+<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="105">
+  <x:si>
+    <x:t>Setting #33</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Setting #17</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Setting #7</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Setting #6</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Setting #9</x:t>
+  </x:si>
   <x:si>
     <x:t>adam</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Setting #18</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Setting #8</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">(200, 200, 200)	</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Setting #22</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1.56 minutes</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3.56 minutes</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2.06 minutes</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Setting #23</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2.03 minutes</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1.22 minutes</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Setting #13</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Setting #10</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Setting #31</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Setting #27</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1.85 minutes</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Setting #16</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Setting #11</x:t>
+  </x:si>
+  <x:si>
+    <x:t>0.70 minutes</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1.27 minutes</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Setting #29</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">(512, 256)	</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Setting #15</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Learning rate</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Dropout rate</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3.48 minutes</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3.47 minutes</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2.88 minutes</x:t>
+  </x:si>
+  <x:si>
+    <x:t>0.71 minutes</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3.44 minutes</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3.45 minutes</x:t>
+  </x:si>
+  <x:si>
+    <x:t>512,256,128,64</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1.41 minutes</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2.96 minutes</x:t>
+  </x:si>
+  <x:si>
+    <x:t>He</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">He </x:t>
+  </x:si>
+  <x:si>
+    <x:t>Validation dataset accuracy plot</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Activation function</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Weight Decay lambda</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Training time (m)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Epoch</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Setting #12</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2.31 minutes</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Early Stopping epoch</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MNIST Evaluation Report</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Weight Initialization</x:t>
+  </x:si>
+  <x:si>
+    <x:t>[ 결과 정리 ]</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Batch_size</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Accuracy </x:t>
+  </x:si>
+  <x:si>
+    <x:t>Optimizer</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Setting #1</x:t>
+  </x:si>
+  <x:si>
+    <x:t># of layers</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Setting #4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Layer size</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Setting #2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Setting #3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>…</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">(300, 200, 100)	</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Xavier</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1.81 minutes</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1.05 minutes</x:t>
+  </x:si>
+  <x:si>
+    <x:t>0.96 minutes</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5.57 minutes</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1.62 minutes</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7.35 minutes</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1.50 minutes</x:t>
+  </x:si>
+  <x:si>
+    <x:t>None</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Setting #5</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve"> 5.20 minutes</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1.93 minutes</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5.73 minutes</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1.79 minutes</x:t>
   </x:si>
   <x:si>
     <x:t>Setting #1 다른 설정과 비교하기 위한 기준점(Baseline)으로, 추가 기법 없이 기본 파라미터로만 학습
  Setting#2 기준점에서 Layer 개수를 4개로 확장 
 Setting #3 (Setting#3)에서 dropout 0.5 를 적용
 Setting#4 (Setting#3) 에서 Xavier -&gt; He Initialzation 적용
-Setting#5 (Setting#4) 에서 Early Stopping epoch 를 5로 적용</x:t>
-  </x:si>
-  <x:si>
-    <x:t>He (Kaiming) Normal</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Setting#3</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Learning rate</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Dropout rate</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3.48 minutes</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3.44 minutes</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3.45 minutes</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Xavier Normal</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Validation dataset accuracy plot</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Activation function</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Weight Decay lambda</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Training time (m)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Epoch</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Early Stopping epoch</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MNIST Evaluation Report</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Weight Initialization</x:t>
-  </x:si>
-  <x:si>
-    <x:t>[ 결과 정리 ]</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Batch_size</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">Accuracy </x:t>
-  </x:si>
-  <x:si>
-    <x:t>Optimizer</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Setting #1</x:t>
-  </x:si>
-  <x:si>
-    <x:t># of layers</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Setting #4</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Layer size</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Setting #2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Setting #3</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Setting#4</x:t>
-  </x:si>
-  <x:si>
-    <x:t>…</x:t>
-  </x:si>
-  <x:si>
-    <x:t>None</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Setting #5</x:t>
-  </x:si>
-  <x:si>
-    <x:t>300-&gt;200-&gt;10</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">(300 → 200 → 100 → 10)	</x:t>
+Setting#5 (Setting#4) 에서 Early Stopping epoch 를 3로 적용
+Setting#6 (Setting#5)에서 epoch 사이즈 100으로 변경
+Setting#7 (Setting#6) 에서 early stopping 1로 변경 
+Setting#8 (Setting#7) 에서 early stopping 5로 변경
+Setting#9 (Setting#8)에서 batch_size 100으로 변경
+Setting#10 (Setting#9)에서 dropout rate 0.2로 변경 
+Setting#11 (Setting#10) 에서 Weight Decay Lambda 0.001로 변경 -&gt;  val/loss 값이 매우 늘어남</x:t>
   </x:si>
   <x:si>
     <x:t>3.36 minutes</x:t>
   </x:si>
   <x:si>
     <x:t>ReLU</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5.66 minutes</x:t>
+  </x:si>
+  <x:si>
+    <x:t>8.61 minutes</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Setting #19</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Setting #28</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6.23 minutes</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Setting #14</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Setting #21</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Setting #20</x:t>
+  </x:si>
+  <x:si>
+    <x:t>0.72 minutes</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Setting #25</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Setting #36</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Setting #26</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Setting #37</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Setting #38</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Setting #39</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Setting #24</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7.99 minutes</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Setting #34</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Setting #30</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Setting #35</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5.36 minutes</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7.60 minutes</x:t>
+  </x:si>
+  <x:si>
+    <x:t>0.63 minutes</x:t>
+  </x:si>
+  <x:si>
+    <x:t>8.27 minutes</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Setting #32</x:t>
   </x:si>
 </x:sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <x:styleSheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <x:fonts count="9">
+  <x:fonts count="13">
     <x:font>
       <x:name val="맑은 고딕"/>
       <x:sz val="11"/>
@@ -180,6 +393,90 @@
       <x:color rgb="ff000000"/>
       <x:b val="1"/>
     </x:font>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:font hs:extension="1">
+          <x:name val="맑은 고딕"/>
+          <x:sz val="11"/>
+          <x:color rgb="ff4472c4"/>
+          <x:b val="1"/>
+          <hs:size val="100"/>
+          <hs:ratio val="100"/>
+          <hs:spacing val="0"/>
+          <hs:offset val="0"/>
+        </x:font>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:font>
+          <x:name val="맑은 고딕"/>
+          <x:sz val="11"/>
+          <x:color rgb="ff4472c4"/>
+          <x:b val="1"/>
+        </x:font>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:font hs:extension="1">
+          <x:name val="맑은 고딕"/>
+          <x:sz val="11"/>
+          <x:color rgb="ff4472c4"/>
+          <hs:size val="100"/>
+          <hs:ratio val="100"/>
+          <hs:spacing val="0"/>
+          <hs:offset val="0"/>
+        </x:font>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:font>
+          <x:name val="맑은 고딕"/>
+          <x:sz val="11"/>
+          <x:color rgb="ff4472c4"/>
+        </x:font>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:font hs:extension="1">
+          <x:name val="맑은 고딕"/>
+          <x:sz val="11"/>
+          <x:color rgb="ffff0000"/>
+          <x:b val="1"/>
+          <hs:size val="100"/>
+          <hs:ratio val="100"/>
+          <hs:spacing val="0"/>
+          <hs:offset val="0"/>
+        </x:font>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:font>
+          <x:name val="맑은 고딕"/>
+          <x:sz val="11"/>
+          <x:color rgb="ffff0000"/>
+          <x:b val="1"/>
+        </x:font>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:font hs:extension="1">
+          <x:name val="맑은 고딕"/>
+          <x:sz val="11"/>
+          <x:color rgb="ffff0000"/>
+          <hs:size val="100"/>
+          <hs:ratio val="100"/>
+          <hs:spacing val="0"/>
+          <hs:offset val="0"/>
+        </x:font>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:font>
+          <x:name val="맑은 고딕"/>
+          <x:sz val="11"/>
+          <x:color rgb="ffff0000"/>
+        </x:font>
+      </mc:Fallback>
+    </mc:AlternateContent>
     <x:font>
       <x:name val="Calibri"/>
       <x:sz val="11"/>
@@ -418,7 +715,7 @@
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="36">
+  <x:cellXfs count="46">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
@@ -777,6 +1074,136 @@
         </x:xf>
       </mc:Fallback>
     </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="11" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="11" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="3" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="3" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="10" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="10" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="11" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="11" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="3" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="3" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="10" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="10" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
   </x:cellXfs>
   <x:cellStyles count="1">
     <x:cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -786,19 +1213,19 @@
 </x:styleSheet>
 </file>
 
-<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing30.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>990599</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>46</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:sp fLocksText="1" fPublished="0">
@@ -808,7 +1235,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5600700" y="2781300"/>
+          <a:off x="5600700" y="9906000"/>
           <a:ext cx="2009775" cy="228600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -862,13 +1289,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>56</xdr:row>
       <xdr:rowOff>200025</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>838200</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>70</xdr:row>
       <xdr:rowOff>123824</xdr:rowOff>
     </xdr:to>
     <xdr:sp fLocksText="1" fPublished="0">
@@ -878,7 +1305,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="733425" y="4876800"/>
+          <a:off x="733425" y="12001500"/>
           <a:ext cx="15573375" cy="2857500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -913,9 +1340,66 @@
         <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
         <a:lstStyle/>
         <a:p>
-          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>처음에 순정 상태에서는 Val/Loss 가 매우 불안정한 상태를 보여줌 이후 Layer 개수를 4로 늘린 이후에도 Val/Loss 가 매운 불안정하고 정확도가 떨어진 걸 유추했을 때 과적합이 되었다 유추 -&gt;Drop적용 이후 매우 안정적인 그래프로 Val/Loss 가 바뀜</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
         </a:p>
         <a:p>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>이후 Setting 4에서 He 적용 후에 조금 더 val/loss 가 안정적인 상태를 보였으나 끝부분에서 올라가 형태를 보임</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>때문에 early stopping 을 적용했지만 좋은 효과를 보진 못함</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>Setting 9 이후로 batchsize 를 64로 바꾼이후  val/loss 가 매우 불안정한 그래프를 보여줌 -&gt; 이후 Setting 12에서 batch size 64로 변경 또한 early stopping 10까지 최대효율 갱신이 안되서어 Early Stopping 도 3로 줄임</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t> 이후 정확도도 98.15%로 개선됨</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>Setting 12 가 가장 정확도가 높았으므로 이를 바탕으로 dropout rate 를 조정했지만 0.2가 가장 좋은 상태를 보여줌</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>이후 개선이 안되자 Setting 17 에서 레이어를 늘리고 정규화 강도를 높여봄 하지만 여전히 오히려 정확도가 내려가 다시 Setting 12에서 최적화를 시도</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>이후 dropout 및 early stopping 을 조절해봤지만 최고점을 갱신 못하여 그래프를 보고 학습 자체가 더 깊이 안된다고 판단하여 (val/loss) 가 최저점을 갱신 못함 </a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>Setting 28 에서 learning rate를 낮춰 98.35%까지 갱신이후 여러 파라미터를 조정해봤지만 로컬 미니마에 빠졋단 판단하에 배치 사이즈를 키우고 laye사이즈도 깊이를 더 늘리고 drop out rate 를 늘림</a:t>
+          </a:r>
           <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
@@ -926,13 +1410,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>361950</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>46</xdr:row>
       <xdr:rowOff>123824</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>657225</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:sp fLocksText="1" fPublished="0">
@@ -942,7 +1426,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1019175" y="2800350"/>
+          <a:off x="1019175" y="9925050"/>
           <a:ext cx="2105025" cy="228600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -996,13 +1480,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>647700</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>46</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>276225</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp fLocksText="1" fPublished="0">
@@ -1012,7 +1496,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8029574" y="2752725"/>
+          <a:off x="8029574" y="9877425"/>
           <a:ext cx="2114550" cy="238125"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1066,13 +1550,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>790575</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>46</xdr:row>
       <xdr:rowOff>123824</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>723900</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:sp fLocksText="1" fPublished="0">
@@ -1082,7 +1566,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3257550" y="2800350"/>
+          <a:off x="3257550" y="9925050"/>
           <a:ext cx="2076450" cy="228600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1136,13 +1620,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>504825</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>46</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:sp fLocksText="1" fPublished="0">
@@ -1152,7 +1636,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10372725" y="2743200"/>
+          <a:off x="10372725" y="9867900"/>
           <a:ext cx="2114550" cy="228600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1200,310 +1684,6 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
-    <xdr:clientData fLocksWithSheet="1" fPrintsWithSheet="1"/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>685799</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>352425</xdr:colOff>
-      <xdr:row>56</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic macro="" fPublished="0">
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="26" name="그림 25"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1343025" y="8963025"/>
-          <a:ext cx="7178792" cy="2895700"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData fLocksWithSheet="1" fPrintsWithSheet="1"/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>1181100</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic macro="" fPublished="0">
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="27" name="그림 26"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9353550" y="8963025"/>
-          <a:ext cx="6572384" cy="2705603"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData fLocksWithSheet="1" fPrintsWithSheet="1"/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>1181100</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>466725</xdr:colOff>
-      <xdr:row>67</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic macro="" fPublished="0">
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="28" name="그림 27"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip r:embed="rId3"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9353550" y="11668628"/>
-          <a:ext cx="6583287" cy="2588152"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData fLocksWithSheet="1" fPrintsWithSheet="1"/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>685799</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>171449</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>390525</xdr:colOff>
-      <xdr:row>69</xdr:row>
-      <xdr:rowOff>85724</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic macro="" fPublished="0">
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="29" name="그림 28"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip r:embed="rId4"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1343025" y="11763375"/>
-          <a:ext cx="7222420" cy="2843472"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData fLocksWithSheet="1" fPrintsWithSheet="1"/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>685799</xdr:colOff>
-      <xdr:row>74</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>342899</xdr:colOff>
-      <xdr:row>88</xdr:row>
-      <xdr:rowOff>123824</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic macro="" fPublished="0">
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="30" name="그림 29"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip r:embed="rId5"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1343024" y="15725777"/>
-          <a:ext cx="7177087" cy="2904565"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData fLocksWithSheet="1" fPrintsWithSheet="1"/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>704850</xdr:colOff>
-      <xdr:row>88</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>371475</xdr:colOff>
-      <xdr:row>102</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic macro="" fPublished="0">
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="31" name="그림 30"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip r:embed="rId6"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1365691" y="18635924"/>
-          <a:ext cx="7177087" cy="2812812"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData fLocksWithSheet="1" fPrintsWithSheet="1"/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>1181100</xdr:colOff>
-      <xdr:row>74</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>885825</xdr:colOff>
-      <xdr:row>87</xdr:row>
-      <xdr:rowOff>171449</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic macro="" fPublished="0">
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="32" name="그림 31"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip r:embed="rId7"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9353550" y="15725778"/>
-          <a:ext cx="7001211" cy="2741475"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData fLocksWithSheet="1" fPrintsWithSheet="1"/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>1181100</xdr:colOff>
-      <xdr:row>87</xdr:row>
-      <xdr:rowOff>171449</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>838200</xdr:colOff>
-      <xdr:row>101</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic macro="" fPublished="0">
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="33" name="그림 32"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip r:embed="rId8"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9353550" y="18467254"/>
-          <a:ext cx="6953250" cy="2773967"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
     <xdr:clientData fLocksWithSheet="1" fPrintsWithSheet="1"/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -1800,10 +1980,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetPr codeName="Sheet1"/>
-  <x:dimension ref="B2:O74"/>
+  <x:dimension ref="B2:O71"/>
   <x:sheetViews>
-    <x:sheetView tabSelected="1" topLeftCell="A1" zoomScaleNormal="75" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <x:selection activeCell="P15" activeCellId="0" sqref="P15:P15"/>
+    <x:sheetView tabSelected="1" topLeftCell="A30" zoomScaleNormal="75" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <x:selection activeCell="T44" activeCellId="0" sqref="T44:T44"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="9.00390625" defaultRowHeight="16.39999999999999857891"/>
@@ -1828,7 +2008,7 @@
   <x:sheetData>
     <x:row r="2" spans="2:15" ht="29.94999999999999928946">
       <x:c r="B2" s="22" t="s">
-        <x:v>16</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="C2" s="23"/>
       <x:c r="D2" s="23"/>
@@ -1847,54 +2027,54 @@
     <x:row r="3" spans="2:15" ht="16.75">
       <x:c r="B3" s="3"/>
       <x:c r="C3" s="4" t="s">
-        <x:v>19</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="D3" s="4" t="s">
-        <x:v>11</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="E3" s="4" t="s">
-        <x:v>14</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="F3" s="4" t="s">
-        <x:v>4</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="G3" s="4" t="s">
-        <x:v>23</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="H3" s="4" t="s">
-        <x:v>25</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="I3" s="4" t="s">
-        <x:v>21</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="J3" s="4" t="s">
-        <x:v>12</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="K3" s="4" t="s">
-        <x:v>17</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="L3" s="4" t="s">
-        <x:v>5</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="M3" s="4" t="s">
-        <x:v>15</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="N3" s="4" t="s">
-        <x:v>13</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="O3" s="5" t="s">
-        <x:v>20</x:v>
+        <x:v>53</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="2:15">
       <x:c r="B4" s="6" t="s">
-        <x:v>22</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="C4" s="2">
         <x:v>64</x:v>
       </x:c>
       <x:c r="D4" s="2" t="s">
-        <x:v>35</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="E4" s="2">
         <x:v>30</x:v>
@@ -1905,26 +2085,26 @@
       <x:c r="G4" s="2">
         <x:v>3</x:v>
       </x:c>
-      <x:c r="H4" s="28" t="s">
-        <x:v>32</x:v>
+      <x:c r="H4" s="28">
+        <x:v>300200</x:v>
       </x:c>
       <x:c r="I4" s="2" t="s">
-        <x:v>0</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="J4" s="27">
         <x:v>0.00010000000000000001</x:v>
       </x:c>
       <x:c r="K4" s="2" t="s">
-        <x:v>9</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="L4" s="2" t="s">
-        <x:v>30</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="M4" s="2" t="s">
-        <x:v>30</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="N4" s="7" t="s">
-        <x:v>7</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="O4" s="18">
         <x:v>0.98069999999999991</x:v>
@@ -1932,13 +2112,13 @@
     </x:row>
     <x:row r="5" spans="2:15">
       <x:c r="B5" s="6" t="s">
-        <x:v>26</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="C5" s="2">
         <x:v>64</x:v>
       </x:c>
       <x:c r="D5" s="2" t="s">
-        <x:v>35</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="E5" s="2">
         <x:v>30</x:v>
@@ -1950,25 +2130,25 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="H5" s="28" t="s">
-        <x:v>33</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="I5" s="2" t="s">
-        <x:v>0</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="J5" s="27">
         <x:v>0.00010000000000000001</x:v>
       </x:c>
       <x:c r="K5" s="2" t="s">
-        <x:v>9</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="L5" s="2" t="s">
-        <x:v>30</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="M5" s="2" t="s">
-        <x:v>30</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="N5" s="7" t="s">
-        <x:v>8</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="O5" s="18">
         <x:v>0.97989999999999999</x:v>
@@ -1976,13 +2156,13 @@
     </x:row>
     <x:row r="6" spans="2:15">
       <x:c r="B6" s="6" t="s">
-        <x:v>27</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="C6" s="2">
         <x:v>64</x:v>
       </x:c>
       <x:c r="D6" s="2" t="s">
-        <x:v>35</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="E6" s="2">
         <x:v>30</x:v>
@@ -1994,25 +2174,25 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="H6" s="28" t="s">
-        <x:v>33</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="I6" s="2" t="s">
-        <x:v>0</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="J6" s="27">
         <x:v>0.00010000000000000001</x:v>
       </x:c>
       <x:c r="K6" s="2" t="s">
-        <x:v>9</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="L6" s="2">
         <x:v>0.5</x:v>
       </x:c>
       <x:c r="M6" s="2" t="s">
-        <x:v>30</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="N6" s="7" t="s">
-        <x:v>34</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="O6" s="18">
         <x:v>0.98060000000000003</x:v>
@@ -2020,13 +2200,13 @@
     </x:row>
     <x:row r="7" spans="2:15">
       <x:c r="B7" s="6" t="s">
-        <x:v>24</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="C7" s="2">
         <x:v>64</x:v>
       </x:c>
       <x:c r="D7" s="2" t="s">
-        <x:v>35</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="E7" s="2">
         <x:v>30</x:v>
@@ -2038,25 +2218,25 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="H7" s="28" t="s">
-        <x:v>33</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="I7" s="2" t="s">
-        <x:v>0</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="J7" s="27">
         <x:v>0.00010000000000000001</x:v>
       </x:c>
       <x:c r="K7" s="2" t="s">
-        <x:v>2</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="L7" s="2">
         <x:v>0.5</x:v>
       </x:c>
       <x:c r="M7" s="2" t="s">
+        <x:v>71</x:v>
+      </x:c>
+      <x:c r="N7" s="7" t="s">
         <x:v>30</x:v>
-      </x:c>
-      <x:c r="N7" s="7" t="s">
-        <x:v>6</x:v>
       </x:c>
       <x:c r="O7" s="18">
         <x:v>0.97999999999999998</x:v>
@@ -2064,13 +2244,13 @@
     </x:row>
     <x:row r="8" spans="2:15">
       <x:c r="B8" s="6" t="s">
-        <x:v>31</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="C8" s="2">
         <x:v>64</x:v>
       </x:c>
       <x:c r="D8" s="2" t="s">
-        <x:v>35</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="E8" s="2">
         <x:v>30</x:v>
@@ -2082,16 +2262,16 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="H8" s="28" t="s">
-        <x:v>33</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="I8" s="2" t="s">
-        <x:v>0</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="J8" s="27">
         <x:v>0.00010000000000000001</x:v>
       </x:c>
       <x:c r="K8" s="2" t="s">
-        <x:v>2</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="L8" s="2">
         <x:v>0.5</x:v>
@@ -2100,392 +2280,1872 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="N8" s="7" t="s">
-        <x:v>6</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="O8" s="18">
-        <x:v>0.97999999999999998</x:v>
+        <x:v>0.97840000000000005</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="2:15">
-      <x:c r="B9" s="6"/>
-      <x:c r="C9" s="2"/>
-      <x:c r="D9" s="2"/>
-      <x:c r="E9" s="2"/>
-      <x:c r="F9" s="2"/>
-      <x:c r="G9" s="2"/>
-      <x:c r="H9" s="2"/>
-      <x:c r="I9" s="2"/>
-      <x:c r="J9" s="2"/>
-      <x:c r="K9" s="2"/>
-      <x:c r="L9" s="2"/>
-      <x:c r="M9" s="2"/>
-      <x:c r="N9" s="7"/>
-      <x:c r="O9" s="18"/>
+      <x:c r="B9" s="6" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="C9" s="2">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="D9" s="2" t="s">
+        <x:v>79</x:v>
+      </x:c>
+      <x:c r="E9" s="2">
+        <x:v>100</x:v>
+      </x:c>
+      <x:c r="F9" s="27">
+        <x:v>0.0010000000000000001</x:v>
+      </x:c>
+      <x:c r="G9" s="2">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="H9" s="28" t="s">
+        <x:v>62</x:v>
+      </x:c>
+      <x:c r="I9" s="2" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="J9" s="27">
+        <x:v>0.00010000000000000001</x:v>
+      </x:c>
+      <x:c r="K9" s="2" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="L9" s="2">
+        <x:v>0.5</x:v>
+      </x:c>
+      <x:c r="M9" s="2">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="N9" s="7" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="O9" s="18">
+        <x:v>0.97840000000000005</x:v>
+      </x:c>
     </x:row>
     <x:row r="10" spans="2:15">
-      <x:c r="B10" s="6"/>
-      <x:c r="C10" s="2"/>
-      <x:c r="D10" s="2"/>
-      <x:c r="E10" s="2"/>
-      <x:c r="F10" s="2"/>
-      <x:c r="G10" s="2"/>
-      <x:c r="H10" s="2"/>
-      <x:c r="I10" s="2"/>
-      <x:c r="J10" s="2"/>
-      <x:c r="K10" s="2"/>
-      <x:c r="L10" s="2"/>
-      <x:c r="M10" s="2"/>
-      <x:c r="N10" s="7"/>
-      <x:c r="O10" s="18"/>
+      <x:c r="B10" s="6" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="C10" s="2">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="D10" s="2" t="s">
+        <x:v>79</x:v>
+      </x:c>
+      <x:c r="E10" s="2">
+        <x:v>100</x:v>
+      </x:c>
+      <x:c r="F10" s="27">
+        <x:v>0.0010000000000000001</x:v>
+      </x:c>
+      <x:c r="G10" s="2">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="H10" s="28" t="s">
+        <x:v>62</x:v>
+      </x:c>
+      <x:c r="I10" s="2" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="J10" s="27">
+        <x:v>0.00010000000000000001</x:v>
+      </x:c>
+      <x:c r="K10" s="2" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="L10" s="2">
+        <x:v>0.5</x:v>
+      </x:c>
+      <x:c r="M10" s="2">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="N10" s="7" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="O10" s="18">
+        <x:v>0.97840000000000005</x:v>
+      </x:c>
     </x:row>
     <x:row r="11" spans="2:15">
       <x:c r="B11" s="6" t="s">
-        <x:v>29</x:v>
-      </x:c>
-      <x:c r="C11" s="20"/>
-      <x:c r="D11" s="20"/>
-      <x:c r="E11" s="20"/>
-      <x:c r="F11" s="20"/>
-      <x:c r="G11" s="20"/>
-      <x:c r="H11" s="20"/>
-      <x:c r="I11" s="20"/>
-      <x:c r="J11" s="20"/>
-      <x:c r="K11" s="20"/>
-      <x:c r="L11" s="20"/>
-      <x:c r="M11" s="20"/>
-      <x:c r="N11" s="21"/>
-      <x:c r="O11" s="18"/>
-    </x:row>
-    <x:row r="12" spans="2:15" ht="15.75" customHeight="1">
-      <x:c r="B12" s="25" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="C11" s="2">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="D11" s="2" t="s">
+        <x:v>79</x:v>
+      </x:c>
+      <x:c r="E11" s="2">
+        <x:v>100</x:v>
+      </x:c>
+      <x:c r="F11" s="27">
+        <x:v>0.0010000000000000001</x:v>
+      </x:c>
+      <x:c r="G11" s="2">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="H11" s="28" t="s">
+        <x:v>62</x:v>
+      </x:c>
+      <x:c r="I11" s="2" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="J11" s="27">
+        <x:v>0.00010000000000000001</x:v>
+      </x:c>
+      <x:c r="K11" s="2" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="L11" s="2">
+        <x:v>0.5</x:v>
+      </x:c>
+      <x:c r="M11" s="2">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="N11" s="7" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="O11" s="18">
+        <x:v>0.97999999999999998</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="12" spans="2:15">
+      <x:c r="B12" s="6" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="C12" s="2">
+        <x:v>100</x:v>
+      </x:c>
+      <x:c r="D12" s="2" t="s">
+        <x:v>79</x:v>
+      </x:c>
+      <x:c r="E12" s="2">
+        <x:v>100</x:v>
+      </x:c>
+      <x:c r="F12" s="27">
+        <x:v>0.0010000000000000001</x:v>
+      </x:c>
+      <x:c r="G12" s="2">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="H12" s="28" t="s">
+        <x:v>62</x:v>
+      </x:c>
+      <x:c r="I12" s="2" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="J12" s="27">
+        <x:v>0.00010000000000000001</x:v>
+      </x:c>
+      <x:c r="K12" s="2" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="L12" s="2">
+        <x:v>0.5</x:v>
+      </x:c>
+      <x:c r="M12" s="2">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="N12" s="7" t="s">
+        <x:v>70</x:v>
+      </x:c>
+      <x:c r="O12" s="18">
+        <x:v>0.97809999999999997</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="13" spans="2:15">
+      <x:c r="B13" s="6" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="C13" s="2">
+        <x:v>100</x:v>
+      </x:c>
+      <x:c r="D13" s="2" t="s">
+        <x:v>79</x:v>
+      </x:c>
+      <x:c r="E13" s="2">
+        <x:v>100</x:v>
+      </x:c>
+      <x:c r="F13" s="27">
+        <x:v>0.0010000000000000001</x:v>
+      </x:c>
+      <x:c r="G13" s="2">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="H13" s="28" t="s">
+        <x:v>62</x:v>
+      </x:c>
+      <x:c r="I13" s="2" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="J13" s="27">
+        <x:v>0.00010000000000000001</x:v>
+      </x:c>
+      <x:c r="K13" s="2" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="L13" s="2">
+        <x:v>0.20000000000000001</x:v>
+      </x:c>
+      <x:c r="M13" s="2">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="N13" s="7" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="O13" s="18">
+        <x:v>0.98049999999999993</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="14" spans="2:15">
+      <x:c r="B14" s="6" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="C14" s="2">
+        <x:v>100</x:v>
+      </x:c>
+      <x:c r="D14" s="2" t="s">
+        <x:v>79</x:v>
+      </x:c>
+      <x:c r="E14" s="2">
+        <x:v>100</x:v>
+      </x:c>
+      <x:c r="F14" s="27">
+        <x:v>0.0010000000000000001</x:v>
+      </x:c>
+      <x:c r="G14" s="2">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="H14" s="28" t="s">
+        <x:v>62</x:v>
+      </x:c>
+      <x:c r="I14" s="2" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="J14" s="27">
+        <x:v>0.0010000000000000001</x:v>
+      </x:c>
+      <x:c r="K14" s="2" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="L14" s="2">
+        <x:v>0.20000000000000001</x:v>
+      </x:c>
+      <x:c r="M14" s="2">
         <x:v>10</x:v>
       </x:c>
-      <x:c r="C12" s="26"/>
-      <x:c r="D12" s="26"/>
-      <x:c r="E12" s="17"/>
-      <x:c r="F12" s="17"/>
-      <x:c r="G12" s="17"/>
-      <x:c r="H12" s="17"/>
-      <x:c r="O12" s="1"/>
-    </x:row>
-    <x:row r="13" spans="2:15" ht="15.75" customHeight="1">
-      <x:c r="B13" s="35" t="s">
+      <x:c r="N14" s="7" t="s">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="O14" s="18">
+        <x:v>0.97519999999999996</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="15" spans="2:15">
+      <x:c r="B15" s="36" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="C15" s="37">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="D15" s="37" t="s">
+        <x:v>79</x:v>
+      </x:c>
+      <x:c r="E15" s="37">
+        <x:v>100</x:v>
+      </x:c>
+      <x:c r="F15" s="38">
+        <x:v>0.0010000000000000001</x:v>
+      </x:c>
+      <x:c r="G15" s="37">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="H15" s="39" t="s">
+        <x:v>62</x:v>
+      </x:c>
+      <x:c r="I15" s="37" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="J15" s="38">
+        <x:v>0.00010000000000000001</x:v>
+      </x:c>
+      <x:c r="K15" s="37" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="L15" s="37">
+        <x:v>0.20000000000000001</x:v>
+      </x:c>
+      <x:c r="M15" s="37">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="N15" s="37" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="O15" s="40">
+        <x:v>0.98150000000000004</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="16" spans="2:15">
+      <x:c r="B16" s="6" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="C16" s="2">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="D16" s="2" t="s">
+        <x:v>79</x:v>
+      </x:c>
+      <x:c r="E16" s="2">
+        <x:v>100</x:v>
+      </x:c>
+      <x:c r="F16" s="27">
+        <x:v>0.0010000000000000001</x:v>
+      </x:c>
+      <x:c r="G16" s="2">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="H16" s="28" t="s">
+        <x:v>62</x:v>
+      </x:c>
+      <x:c r="I16" s="2" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="J16" s="27">
+        <x:v>0.00010000000000000001</x:v>
+      </x:c>
+      <x:c r="K16" s="2" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="L16" s="2">
+        <x:v>0.5</x:v>
+      </x:c>
+      <x:c r="M16" s="2">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="N16" s="7" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="O16" s="18">
+        <x:v>0.97840000000000005</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="17" spans="2:15">
+      <x:c r="B17" s="6" t="s">
+        <x:v>85</x:v>
+      </x:c>
+      <x:c r="C17" s="2">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="D17" s="2" t="s">
+        <x:v>79</x:v>
+      </x:c>
+      <x:c r="E17" s="2">
+        <x:v>100</x:v>
+      </x:c>
+      <x:c r="F17" s="27">
+        <x:v>0.0010000000000000001</x:v>
+      </x:c>
+      <x:c r="G17" s="2">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="H17" s="28" t="s">
+        <x:v>62</x:v>
+      </x:c>
+      <x:c r="I17" s="2" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="J17" s="27">
+        <x:v>0.00010000000000000001</x:v>
+      </x:c>
+      <x:c r="K17" s="2" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="L17" s="2">
+        <x:v>0.5</x:v>
+      </x:c>
+      <x:c r="M17" s="2">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="N17" s="7" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="O17" s="18">
+        <x:v>0.97609999999999997</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="18" spans="2:15">
+      <x:c r="B18" s="6" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="C18" s="2">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="D18" s="2" t="s">
+        <x:v>79</x:v>
+      </x:c>
+      <x:c r="E18" s="2">
+        <x:v>100</x:v>
+      </x:c>
+      <x:c r="F18" s="27">
+        <x:v>0.0010000000000000001</x:v>
+      </x:c>
+      <x:c r="G18" s="2">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="H18" s="28" t="s">
+        <x:v>62</x:v>
+      </x:c>
+      <x:c r="I18" s="2" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="J18" s="27">
+        <x:v>0.00010000000000000001</x:v>
+      </x:c>
+      <x:c r="K18" s="2" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="L18" s="2">
+        <x:v>0.20000000000000001</x:v>
+      </x:c>
+      <x:c r="M18" s="2">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="N18" s="7" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="O18" s="18">
+        <x:v>0.98150000000000004</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="19" spans="2:15">
+      <x:c r="B19" s="6" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C19" s="2">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="D19" s="2" t="s">
+        <x:v>79</x:v>
+      </x:c>
+      <x:c r="E19" s="2">
+        <x:v>100</x:v>
+      </x:c>
+      <x:c r="F19" s="27">
+        <x:v>0.0010000000000000001</x:v>
+      </x:c>
+      <x:c r="G19" s="2">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="H19" s="28" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="I19" s="2" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="J19" s="27">
+        <x:v>0.00010000000000000001</x:v>
+      </x:c>
+      <x:c r="K19" s="2" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="L19" s="2">
+        <x:v>0.20000000000000001</x:v>
+      </x:c>
+      <x:c r="M19" s="2">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="N19" s="7" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="O19" s="18">
+        <x:v>0.97620000000000007</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="20" spans="2:15">
+      <x:c r="B20" s="6" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="C13" s="30"/>
-      <x:c r="D13" s="30"/>
-      <x:c r="E13" s="30"/>
-      <x:c r="F13" s="30"/>
-      <x:c r="G13" s="30"/>
-      <x:c r="H13" s="30"/>
-      <x:c r="I13" s="30"/>
-      <x:c r="J13" s="30"/>
-      <x:c r="K13" s="30"/>
-      <x:c r="L13" s="30"/>
-      <x:c r="M13" s="30"/>
-      <x:c r="N13" s="30"/>
-      <x:c r="O13" s="31"/>
-    </x:row>
-    <x:row r="14" spans="2:15" ht="15.75" customHeight="1">
-      <x:c r="B14" s="29"/>
-      <x:c r="C14" s="30"/>
-      <x:c r="D14" s="30"/>
-      <x:c r="E14" s="30"/>
-      <x:c r="F14" s="30"/>
-      <x:c r="G14" s="30"/>
-      <x:c r="H14" s="30"/>
-      <x:c r="I14" s="30"/>
-      <x:c r="J14" s="30"/>
-      <x:c r="K14" s="30"/>
-      <x:c r="L14" s="30"/>
-      <x:c r="M14" s="30"/>
-      <x:c r="N14" s="30"/>
-      <x:c r="O14" s="31"/>
-    </x:row>
-    <x:row r="15" spans="2:15" ht="15.75" customHeight="1">
-      <x:c r="B15" s="29"/>
-      <x:c r="C15" s="30"/>
-      <x:c r="D15" s="30"/>
-      <x:c r="E15" s="30"/>
-      <x:c r="F15" s="30"/>
-      <x:c r="G15" s="30"/>
-      <x:c r="H15" s="30"/>
-      <x:c r="I15" s="30"/>
-      <x:c r="J15" s="30"/>
-      <x:c r="K15" s="30"/>
-      <x:c r="L15" s="30"/>
-      <x:c r="M15" s="30"/>
-      <x:c r="N15" s="30"/>
-      <x:c r="O15" s="31"/>
-    </x:row>
-    <x:row r="16" spans="2:15" ht="15.75" customHeight="1">
-      <x:c r="B16" s="29"/>
-      <x:c r="C16" s="30"/>
-      <x:c r="D16" s="30"/>
-      <x:c r="E16" s="30"/>
-      <x:c r="F16" s="30"/>
-      <x:c r="G16" s="30"/>
-      <x:c r="H16" s="30"/>
-      <x:c r="I16" s="30"/>
-      <x:c r="J16" s="30"/>
-      <x:c r="K16" s="30"/>
-      <x:c r="L16" s="30"/>
-      <x:c r="M16" s="30"/>
-      <x:c r="N16" s="30"/>
-      <x:c r="O16" s="31"/>
-    </x:row>
-    <x:row r="17" spans="2:15" ht="15.75" customHeight="1">
-      <x:c r="B17" s="29"/>
-      <x:c r="C17" s="30"/>
-      <x:c r="D17" s="30"/>
-      <x:c r="E17" s="30"/>
-      <x:c r="F17" s="30"/>
-      <x:c r="G17" s="30"/>
-      <x:c r="H17" s="30"/>
-      <x:c r="I17" s="30"/>
-      <x:c r="J17" s="30"/>
-      <x:c r="K17" s="30"/>
-      <x:c r="L17" s="30"/>
-      <x:c r="M17" s="30"/>
-      <x:c r="N17" s="30"/>
-      <x:c r="O17" s="31"/>
-    </x:row>
-    <x:row r="18" spans="2:15" ht="15.75" customHeight="1">
-      <x:c r="B18" s="29"/>
-      <x:c r="C18" s="30"/>
-      <x:c r="D18" s="30"/>
-      <x:c r="E18" s="30"/>
-      <x:c r="F18" s="30"/>
-      <x:c r="G18" s="30"/>
-      <x:c r="H18" s="30"/>
-      <x:c r="I18" s="30"/>
-      <x:c r="J18" s="30"/>
-      <x:c r="K18" s="30"/>
-      <x:c r="L18" s="30"/>
-      <x:c r="M18" s="30"/>
-      <x:c r="N18" s="30"/>
-      <x:c r="O18" s="31"/>
-    </x:row>
-    <x:row r="19" spans="2:15" ht="15.75" customHeight="1">
-      <x:c r="B19" s="29"/>
-      <x:c r="C19" s="30"/>
-      <x:c r="D19" s="30"/>
-      <x:c r="E19" s="30"/>
-      <x:c r="F19" s="30"/>
-      <x:c r="G19" s="30"/>
-      <x:c r="H19" s="30"/>
-      <x:c r="I19" s="30"/>
-      <x:c r="J19" s="30"/>
-      <x:c r="K19" s="30"/>
-      <x:c r="L19" s="30"/>
-      <x:c r="M19" s="30"/>
-      <x:c r="N19" s="30"/>
-      <x:c r="O19" s="31"/>
-    </x:row>
-    <x:row r="20" spans="2:15" ht="15.75" customHeight="1">
-      <x:c r="B20" s="29"/>
-      <x:c r="C20" s="30"/>
-      <x:c r="D20" s="30"/>
-      <x:c r="E20" s="30"/>
-      <x:c r="F20" s="30"/>
-      <x:c r="G20" s="30"/>
-      <x:c r="H20" s="30"/>
-      <x:c r="I20" s="30"/>
-      <x:c r="J20" s="30"/>
-      <x:c r="K20" s="30"/>
-      <x:c r="L20" s="30"/>
-      <x:c r="M20" s="30"/>
-      <x:c r="N20" s="30"/>
-      <x:c r="O20" s="31"/>
-    </x:row>
-    <x:row r="21" spans="2:15" ht="15.75" customHeight="1">
-      <x:c r="B21" s="29"/>
-      <x:c r="C21" s="30"/>
-      <x:c r="D21" s="30"/>
-      <x:c r="E21" s="30"/>
-      <x:c r="F21" s="30"/>
-      <x:c r="G21" s="30"/>
-      <x:c r="H21" s="30"/>
-      <x:c r="I21" s="30"/>
-      <x:c r="J21" s="30"/>
-      <x:c r="K21" s="30"/>
-      <x:c r="L21" s="30"/>
-      <x:c r="M21" s="30"/>
-      <x:c r="N21" s="30"/>
-      <x:c r="O21" s="31"/>
-    </x:row>
-    <x:row r="22" spans="2:15" ht="15.75" customHeight="1">
-      <x:c r="B22" s="32"/>
-      <x:c r="C22" s="33"/>
-      <x:c r="D22" s="33"/>
-      <x:c r="E22" s="33"/>
-      <x:c r="F22" s="33"/>
-      <x:c r="G22" s="33"/>
-      <x:c r="H22" s="33"/>
-      <x:c r="I22" s="33"/>
-      <x:c r="J22" s="33"/>
-      <x:c r="K22" s="33"/>
-      <x:c r="L22" s="33"/>
-      <x:c r="M22" s="33"/>
-      <x:c r="N22" s="33"/>
-      <x:c r="O22" s="34"/>
-    </x:row>
-    <x:row r="23" spans="2:15" ht="16.75">
-      <x:c r="B23" s="16" t="s">
+      <x:c r="C20" s="2">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="D20" s="2" t="s">
+        <x:v>79</x:v>
+      </x:c>
+      <x:c r="E20" s="2">
+        <x:v>100</x:v>
+      </x:c>
+      <x:c r="F20" s="27">
+        <x:v>0.0010000000000000001</x:v>
+      </x:c>
+      <x:c r="G20" s="2">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="H20" s="28" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="I20" s="2" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="J20" s="27">
+        <x:v>0.00010000000000000001</x:v>
+      </x:c>
+      <x:c r="K20" s="2" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="L20" s="2">
+        <x:v>0.29999999999999999</x:v>
+      </x:c>
+      <x:c r="M20" s="2">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="N20" s="7" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="O20" s="18">
+        <x:v>0.98049999999999993</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="21" spans="2:15">
+      <x:c r="B21" s="6" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="C21" s="2">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="D21" s="2" t="s">
+        <x:v>79</x:v>
+      </x:c>
+      <x:c r="E21" s="2">
+        <x:v>100</x:v>
+      </x:c>
+      <x:c r="F21" s="27">
+        <x:v>0.0010000000000000001</x:v>
+      </x:c>
+      <x:c r="G21" s="2">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="H21" s="28" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="I21" s="2" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="J21" s="27">
+        <x:v>0.0010000000000000001</x:v>
+      </x:c>
+      <x:c r="K21" s="2" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="L21" s="2">
+        <x:v>0.40000000000000002</x:v>
+      </x:c>
+      <x:c r="M21" s="2">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="N21" s="7" t="s">
+        <x:v>68</x:v>
+      </x:c>
+      <x:c r="O21" s="18">
+        <x:v>0.98049999999999993</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="22" spans="2:15">
+      <x:c r="B22" s="6" t="s">
+        <x:v>82</x:v>
+      </x:c>
+      <x:c r="C22" s="2">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="D22" s="2" t="s">
+        <x:v>79</x:v>
+      </x:c>
+      <x:c r="E22" s="2">
+        <x:v>100</x:v>
+      </x:c>
+      <x:c r="F22" s="27">
+        <x:v>0.0010000000000000001</x:v>
+      </x:c>
+      <x:c r="G22" s="2">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="H22" s="28" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="I22" s="2" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="J22" s="27">
+        <x:v>0.005</x:v>
+      </x:c>
+      <x:c r="K22" s="2" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="L22" s="2">
+        <x:v>0.29999999999999999</x:v>
+      </x:c>
+      <x:c r="M22" s="2">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="N22" s="7" t="s">
+        <x:v>65</x:v>
+      </x:c>
+      <x:c r="O22" s="18">
+        <x:v>0.97439999999999993</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="23" spans="2:15">
+      <x:c r="B23" s="6" t="s">
+        <x:v>87</x:v>
+      </x:c>
+      <x:c r="C23" s="2">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="D23" s="2" t="s">
+        <x:v>79</x:v>
+      </x:c>
+      <x:c r="E23" s="2">
+        <x:v>100</x:v>
+      </x:c>
+      <x:c r="F23" s="27">
+        <x:v>0.0010000000000000001</x:v>
+      </x:c>
+      <x:c r="G23" s="2">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="H23" s="28" t="s">
+        <x:v>62</x:v>
+      </x:c>
+      <x:c r="I23" s="2" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="J23" s="27">
+        <x:v>0.00010000000000000001</x:v>
+      </x:c>
+      <x:c r="K23" s="2" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="L23" s="2">
+        <x:v>0.20000000000000001</x:v>
+      </x:c>
+      <x:c r="M23" s="2">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="N23" s="7" t="s">
+        <x:v>88</x:v>
+      </x:c>
+      <x:c r="O23" s="18">
+        <x:v>0.97560000000000002</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="24" spans="2:15">
+      <x:c r="B24" s="6" t="s">
+        <x:v>86</x:v>
+      </x:c>
+      <x:c r="C24" s="2">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="D24" s="2" t="s">
+        <x:v>79</x:v>
+      </x:c>
+      <x:c r="E24" s="2">
+        <x:v>100</x:v>
+      </x:c>
+      <x:c r="F24" s="27">
+        <x:v>0.0010000000000000001</x:v>
+      </x:c>
+      <x:c r="G24" s="2">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="H24" s="28" t="s">
+        <x:v>62</x:v>
+      </x:c>
+      <x:c r="I24" s="2" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="J24" s="27">
+        <x:v>0.00010000000000000001</x:v>
+      </x:c>
+      <x:c r="K24" s="2" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="L24" s="2">
+        <x:v>0.25</x:v>
+      </x:c>
+      <x:c r="M24" s="2">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="N24" s="7" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="O24" s="18">
+        <x:v>0.97609999999999997</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="25" spans="2:15">
+      <x:c r="B25" s="6" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C25" s="2">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="D25" s="2" t="s">
+        <x:v>79</x:v>
+      </x:c>
+      <x:c r="E25" s="2">
+        <x:v>100</x:v>
+      </x:c>
+      <x:c r="F25" s="27">
+        <x:v>0.0010000000000000001</x:v>
+      </x:c>
+      <x:c r="G25" s="2">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="H25" s="28" t="s">
+        <x:v>62</x:v>
+      </x:c>
+      <x:c r="I25" s="2" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="J25" s="27">
+        <x:v>0.00010000000000000001</x:v>
+      </x:c>
+      <x:c r="K25" s="2" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="L25" s="2">
+        <x:v>0.20000000000000001</x:v>
+      </x:c>
+      <x:c r="M25" s="2">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="N25" s="7" t="s">
+        <x:v>102</x:v>
+      </x:c>
+      <x:c r="O25" s="18">
+        <x:v>0.97310000000000008</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="26" spans="2:15">
+      <x:c r="B26" s="6" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="C26" s="2">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="D26" s="2" t="s">
+        <x:v>79</x:v>
+      </x:c>
+      <x:c r="E26" s="2">
+        <x:v>100</x:v>
+      </x:c>
+      <x:c r="F26" s="27">
+        <x:v>0.0010000000000000001</x:v>
+      </x:c>
+      <x:c r="G26" s="2">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="H26" s="28" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="I26" s="2" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="J26" s="27">
+        <x:v>0.00010000000000000001</x:v>
+      </x:c>
+      <x:c r="K26" s="2" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="L26" s="2">
+        <x:v>0.20000000000000001</x:v>
+      </x:c>
+      <x:c r="M26" s="2">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="N26" s="7" t="s">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="O26" s="18">
+        <x:v>0.97709999999999997</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="27" spans="2:15">
+      <x:c r="B27" s="6" t="s">
+        <x:v>95</x:v>
+      </x:c>
+      <x:c r="C27" s="2">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="D27" s="2" t="s">
+        <x:v>79</x:v>
+      </x:c>
+      <x:c r="E27" s="2">
+        <x:v>100</x:v>
+      </x:c>
+      <x:c r="F27" s="27">
+        <x:v>0.0010000000000000001</x:v>
+      </x:c>
+      <x:c r="G27" s="2">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="H27" s="28" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="I27" s="2" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="J27" s="27">
+        <x:v>0.00010000000000000001</x:v>
+      </x:c>
+      <x:c r="K27" s="2" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="L27" s="2">
+        <x:v>0.20000000000000001</x:v>
+      </x:c>
+      <x:c r="M27" s="2">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="N27" s="7" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="O27" s="18">
+        <x:v>0.97709999999999997</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="28" spans="2:15">
+      <x:c r="B28" s="6" t="s">
+        <x:v>89</x:v>
+      </x:c>
+      <x:c r="C28" s="2">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="D28" s="2" t="s">
+        <x:v>79</x:v>
+      </x:c>
+      <x:c r="E28" s="2">
+        <x:v>100</x:v>
+      </x:c>
+      <x:c r="F28" s="27">
+        <x:v>0.0010000000000000001</x:v>
+      </x:c>
+      <x:c r="G28" s="2">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="H28" s="28" t="s">
+        <x:v>62</x:v>
+      </x:c>
+      <x:c r="I28" s="2" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="J28" s="27">
+        <x:v>0.00010000000000000001</x:v>
+      </x:c>
+      <x:c r="K28" s="2" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="L28" s="2">
+        <x:v>0.20000000000000001</x:v>
+      </x:c>
+      <x:c r="M28" s="2">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="N28" s="7" t="s">
+        <x:v>76</x:v>
+      </x:c>
+      <x:c r="O28" s="18">
+        <x:v>0.98150000000000004</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="29" spans="2:15">
+      <x:c r="B29" s="6" t="s">
+        <x:v>91</x:v>
+      </x:c>
+      <x:c r="C29" s="2">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="D29" s="2" t="s">
+        <x:v>79</x:v>
+      </x:c>
+      <x:c r="E29" s="2">
+        <x:v>100</x:v>
+      </x:c>
+      <x:c r="F29" s="27">
+        <x:v>0.0010000000000000001</x:v>
+      </x:c>
+      <x:c r="G29" s="2">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="H29" s="28" t="s">
+        <x:v>62</x:v>
+      </x:c>
+      <x:c r="I29" s="2" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="J29" s="27">
+        <x:v>0.00010000000000000001</x:v>
+      </x:c>
+      <x:c r="K29" s="2" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="L29" s="2">
+        <x:v>0.20000000000000001</x:v>
+      </x:c>
+      <x:c r="M29" s="2">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="N29" s="7" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="O29" s="18">
+        <x:v>0.98150000000000004</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="30" spans="2:15">
+      <x:c r="B30" s="6" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="C30" s="2">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="D30" s="2" t="s">
+        <x:v>79</x:v>
+      </x:c>
+      <x:c r="E30" s="2">
+        <x:v>100</x:v>
+      </x:c>
+      <x:c r="F30" s="27">
+        <x:v>0.0010000000000000001</x:v>
+      </x:c>
+      <x:c r="G30" s="2">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="H30" s="28" t="s">
+        <x:v>62</x:v>
+      </x:c>
+      <x:c r="I30" s="2" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="J30" s="27">
+        <x:v>0.00010000000000000001</x:v>
+      </x:c>
+      <x:c r="K30" s="2" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="L30" s="2">
+        <x:v>0.20000000000000001</x:v>
+      </x:c>
+      <x:c r="M30" s="2">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="N30" s="7" t="s">
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="O30" s="18">
+        <x:v>0.98150000000000004</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="31" spans="2:15">
+      <x:c r="B31" s="36" t="s">
+        <x:v>83</x:v>
+      </x:c>
+      <x:c r="C31" s="37">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="D31" s="37" t="s">
+        <x:v>79</x:v>
+      </x:c>
+      <x:c r="E31" s="37">
+        <x:v>100</x:v>
+      </x:c>
+      <x:c r="F31" s="38">
+        <x:v>0.0005</x:v>
+      </x:c>
+      <x:c r="G31" s="37">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="H31" s="39" t="s">
+        <x:v>62</x:v>
+      </x:c>
+      <x:c r="I31" s="37" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="J31" s="38">
+        <x:v>0.00010000000000000001</x:v>
+      </x:c>
+      <x:c r="K31" s="37" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="L31" s="37">
+        <x:v>0.20000000000000001</x:v>
+      </x:c>
+      <x:c r="M31" s="37">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="N31" s="37" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="O31" s="40">
+        <x:v>0.98349999999999993</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="32" spans="2:15">
+      <x:c r="B32" s="6" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="C32" s="2">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="D32" s="2" t="s">
+        <x:v>79</x:v>
+      </x:c>
+      <x:c r="E32" s="2">
+        <x:v>100</x:v>
+      </x:c>
+      <x:c r="F32" s="27">
+        <x:v>0.00010000000000000001</x:v>
+      </x:c>
+      <x:c r="G32" s="2">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="H32" s="28" t="s">
+        <x:v>62</x:v>
+      </x:c>
+      <x:c r="I32" s="2" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="J32" s="27">
+        <x:v>0.00010000000000000001</x:v>
+      </x:c>
+      <x:c r="K32" s="2" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="L32" s="2">
+        <x:v>0.20000000000000001</x:v>
+      </x:c>
+      <x:c r="M32" s="2">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="N32" s="7" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="O32" s="18">
+        <x:v>0.98309999999999997</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="33" spans="2:15">
+      <x:c r="B33" s="6" t="s">
+        <x:v>98</x:v>
+      </x:c>
+      <x:c r="C33" s="2">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="D33" s="2" t="s">
+        <x:v>79</x:v>
+      </x:c>
+      <x:c r="E33" s="2">
+        <x:v>100</x:v>
+      </x:c>
+      <x:c r="F33" s="27">
+        <x:v>0.00010000000000000001</x:v>
+      </x:c>
+      <x:c r="G33" s="2">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="H33" s="28" t="s">
+        <x:v>62</x:v>
+      </x:c>
+      <x:c r="I33" s="2" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="J33" s="27">
+        <x:v>0.00010000000000000001</x:v>
+      </x:c>
+      <x:c r="K33" s="2" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="L33" s="2">
+        <x:v>0.25</x:v>
+      </x:c>
+      <x:c r="M33" s="2">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="N33" s="7" t="s">
+        <x:v>73</x:v>
+      </x:c>
+      <x:c r="O33" s="18">
+        <x:v>0.98209999999999997</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="34" spans="2:15">
+      <x:c r="B34" s="6" t="s">
         <x:v>18</x:v>
       </x:c>
-      <x:c r="C23" s="8"/>
-      <x:c r="D23" s="8"/>
-      <x:c r="E23" s="8"/>
-      <x:c r="F23" s="8"/>
-      <x:c r="G23" s="8"/>
-      <x:c r="H23" s="8"/>
-      <x:c r="I23" s="8"/>
-      <x:c r="J23" s="8"/>
-      <x:c r="K23" s="8"/>
-      <x:c r="L23" s="8"/>
-      <x:c r="M23" s="8"/>
-      <x:c r="N23" s="8"/>
-      <x:c r="O23" s="9"/>
-    </x:row>
-    <x:row r="24" spans="2:15">
-      <x:c r="B24" s="10"/>
-      <x:c r="C24" s="11"/>
-      <x:c r="D24" s="11"/>
-      <x:c r="E24" s="11"/>
-      <x:c r="F24" s="11"/>
-      <x:c r="G24" s="11"/>
-      <x:c r="H24" s="11"/>
-      <x:c r="I24" s="11"/>
-      <x:c r="J24" s="11"/>
-      <x:c r="K24" s="11"/>
-      <x:c r="L24" s="11"/>
-      <x:c r="M24" s="11"/>
-      <x:c r="N24" s="11"/>
-      <x:c r="O24" s="12"/>
-    </x:row>
-    <x:row r="25" spans="2:15">
-      <x:c r="B25" s="10"/>
-      <x:c r="C25" s="11"/>
-      <x:c r="D25" s="11"/>
-      <x:c r="E25" s="11"/>
-      <x:c r="F25" s="11"/>
-      <x:c r="G25" s="11"/>
-      <x:c r="H25" s="11"/>
-      <x:c r="I25" s="11"/>
-      <x:c r="J25" s="11"/>
-      <x:c r="K25" s="11"/>
-      <x:c r="L25" s="11"/>
-      <x:c r="M25" s="11"/>
-      <x:c r="N25" s="11"/>
-      <x:c r="O25" s="12"/>
-    </x:row>
-    <x:row r="26" spans="2:15">
-      <x:c r="B26" s="10"/>
-      <x:c r="C26" s="11"/>
-      <x:c r="D26" s="11"/>
-      <x:c r="E26" s="11"/>
-      <x:c r="F26" s="11"/>
-      <x:c r="G26" s="11"/>
-      <x:c r="H26" s="11"/>
-      <x:c r="I26" s="11"/>
-      <x:c r="J26" s="11"/>
-      <x:c r="K26" s="11"/>
-      <x:c r="L26" s="11"/>
-      <x:c r="M26" s="11"/>
-      <x:c r="N26" s="11"/>
-      <x:c r="O26" s="12"/>
-    </x:row>
-    <x:row r="27" spans="2:15">
-      <x:c r="B27" s="10"/>
-      <x:c r="C27" s="11"/>
-      <x:c r="D27" s="11"/>
-      <x:c r="E27" s="11"/>
-      <x:c r="F27" s="11"/>
-      <x:c r="G27" s="11"/>
-      <x:c r="H27" s="11"/>
-      <x:c r="I27" s="11"/>
-      <x:c r="J27" s="11"/>
-      <x:c r="K27" s="11"/>
-      <x:c r="L27" s="11"/>
-      <x:c r="M27" s="11"/>
-      <x:c r="N27" s="11"/>
-      <x:c r="O27" s="12"/>
-    </x:row>
-    <x:row r="28" spans="2:15">
-      <x:c r="B28" s="10"/>
-      <x:c r="O28" s="12"/>
-    </x:row>
-    <x:row r="29" spans="2:15">
-      <x:c r="B29" s="10"/>
-      <x:c r="O29" s="12"/>
-    </x:row>
-    <x:row r="30" spans="2:15">
-      <x:c r="B30" s="10"/>
-      <x:c r="O30" s="12"/>
-    </x:row>
-    <x:row r="31" spans="2:15">
-      <x:c r="B31" s="10"/>
-      <x:c r="O31" s="12"/>
-    </x:row>
-    <x:row r="32" spans="2:15">
-      <x:c r="B32" s="10"/>
-      <x:c r="O32" s="12"/>
-    </x:row>
-    <x:row r="33" spans="2:15">
-      <x:c r="B33" s="10"/>
-      <x:c r="O33" s="12"/>
-    </x:row>
-    <x:row r="34" spans="2:15">
-      <x:c r="B34" s="10"/>
-      <x:c r="M34" s="19"/>
-      <x:c r="O34" s="12"/>
+      <x:c r="C34" s="2">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="D34" s="2" t="s">
+        <x:v>79</x:v>
+      </x:c>
+      <x:c r="E34" s="2">
+        <x:v>100</x:v>
+      </x:c>
+      <x:c r="F34" s="27">
+        <x:v>0.00010000000000000001</x:v>
+      </x:c>
+      <x:c r="G34" s="2">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="H34" s="28" t="s">
+        <x:v>62</x:v>
+      </x:c>
+      <x:c r="I34" s="2" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="J34" s="27">
+        <x:v>0.00020000000000000001</x:v>
+      </x:c>
+      <x:c r="K34" s="2" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="L34" s="2">
+        <x:v>0.20000000000000001</x:v>
+      </x:c>
+      <x:c r="M34" s="2">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="N34" s="7" t="s">
+        <x:v>69</x:v>
+      </x:c>
+      <x:c r="O34" s="18">
+        <x:v>0.9839</x:v>
+      </x:c>
     </x:row>
     <x:row r="35" spans="2:15">
-      <x:c r="B35" s="10"/>
-      <x:c r="O35" s="12"/>
+      <x:c r="B35" s="6" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="C35" s="2">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="D35" s="2" t="s">
+        <x:v>79</x:v>
+      </x:c>
+      <x:c r="E35" s="2">
+        <x:v>100</x:v>
+      </x:c>
+      <x:c r="F35" s="27">
+        <x:v>0.00014999999999999999</x:v>
+      </x:c>
+      <x:c r="G35" s="2">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="H35" s="28" t="s">
+        <x:v>62</x:v>
+      </x:c>
+      <x:c r="I35" s="2" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="J35" s="27">
+        <x:v>0.00020000000000000001</x:v>
+      </x:c>
+      <x:c r="K35" s="2" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="L35" s="2">
+        <x:v>0.20000000000000001</x:v>
+      </x:c>
+      <x:c r="M35" s="2">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="N35" s="7" t="s">
+        <x:v>84</x:v>
+      </x:c>
+      <x:c r="O35" s="18">
+        <x:v>0.98380000000000001</x:v>
+      </x:c>
     </x:row>
     <x:row r="36" spans="2:15">
-      <x:c r="B36" s="10"/>
-      <x:c r="O36" s="12"/>
-    </x:row>
-    <x:row r="37" spans="2:15" ht="16.75">
-      <x:c r="B37" s="13"/>
-      <x:c r="C37" s="14"/>
-      <x:c r="D37" s="14"/>
-      <x:c r="E37" s="14"/>
-      <x:c r="F37" s="14"/>
-      <x:c r="G37" s="14"/>
-      <x:c r="H37" s="14"/>
-      <x:c r="I37" s="14"/>
-      <x:c r="J37" s="14"/>
-      <x:c r="K37" s="14"/>
-      <x:c r="L37" s="14"/>
-      <x:c r="M37" s="14"/>
-      <x:c r="N37" s="14"/>
-      <x:c r="O37" s="15"/>
-    </x:row>
-    <x:row r="42" spans="4:11">
-      <x:c r="D42" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="K42" t="s">
-        <x:v>26</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="74" spans="4:11">
-      <x:c r="D74" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="K74" t="s">
-        <x:v>28</x:v>
-      </x:c>
+      <x:c r="B36" s="6" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="C36" s="2">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="D36" s="2" t="s">
+        <x:v>79</x:v>
+      </x:c>
+      <x:c r="E36" s="2">
+        <x:v>100</x:v>
+      </x:c>
+      <x:c r="F36" s="27">
+        <x:v>0.00005</x:v>
+      </x:c>
+      <x:c r="G36" s="2">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="H36" s="28" t="s">
+        <x:v>62</x:v>
+      </x:c>
+      <x:c r="I36" s="2" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="J36" s="27">
+        <x:v>0.00020000000000000001</x:v>
+      </x:c>
+      <x:c r="K36" s="2" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="L36" s="2">
+        <x:v>0.20000000000000001</x:v>
+      </x:c>
+      <x:c r="M36" s="2">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="N36" s="7" t="s">
+        <x:v>101</x:v>
+      </x:c>
+      <x:c r="O36" s="18">
+        <x:v>0.98290000000000011</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="37" spans="2:15">
+      <x:c r="B37" s="6" t="s">
+        <x:v>97</x:v>
+      </x:c>
+      <x:c r="C37" s="2">
+        <x:v>128</x:v>
+      </x:c>
+      <x:c r="D37" s="2" t="s">
+        <x:v>79</x:v>
+      </x:c>
+      <x:c r="E37" s="2">
+        <x:v>100</x:v>
+      </x:c>
+      <x:c r="F37" s="27">
+        <x:v>0.0005</x:v>
+      </x:c>
+      <x:c r="G37" s="2">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="H37" s="28" t="s">
+        <x:v>62</x:v>
+      </x:c>
+      <x:c r="I37" s="2" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="J37" s="27">
+        <x:v>0.00010000000000000001</x:v>
+      </x:c>
+      <x:c r="K37" s="2" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="L37" s="2">
+        <x:v>0.20000000000000001</x:v>
+      </x:c>
+      <x:c r="M37" s="2">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="N37" s="7" t="s">
+        <x:v>100</x:v>
+      </x:c>
+      <x:c r="O37" s="18">
+        <x:v>0.98260000000000003</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="38" spans="2:15">
+      <x:c r="B38" s="6" t="s">
+        <x:v>99</x:v>
+      </x:c>
+      <x:c r="C38" s="2">
+        <x:v>128</x:v>
+      </x:c>
+      <x:c r="D38" s="2" t="s">
+        <x:v>79</x:v>
+      </x:c>
+      <x:c r="E38" s="2">
+        <x:v>100</x:v>
+      </x:c>
+      <x:c r="F38" s="27">
+        <x:v>0.00010000000000000001</x:v>
+      </x:c>
+      <x:c r="G38" s="2">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="H38" s="28" t="s">
+        <x:v>62</x:v>
+      </x:c>
+      <x:c r="I38" s="2" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="J38" s="27">
+        <x:v>0.00020000000000000001</x:v>
+      </x:c>
+      <x:c r="K38" s="2" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="L38" s="2">
+        <x:v>0.20000000000000001</x:v>
+      </x:c>
+      <x:c r="M38" s="2">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="N38" s="7" t="s">
+        <x:v>75</x:v>
+      </x:c>
+      <x:c r="O38" s="18">
+        <x:v>0.9819</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="39" spans="2:15">
+      <x:c r="B39" s="6" t="s">
+        <x:v>90</x:v>
+      </x:c>
+      <x:c r="C39" s="2">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="D39" s="2" t="s">
+        <x:v>79</x:v>
+      </x:c>
+      <x:c r="E39" s="2">
+        <x:v>100</x:v>
+      </x:c>
+      <x:c r="F39" s="27">
+        <x:v>0.00010000000000000001</x:v>
+      </x:c>
+      <x:c r="G39" s="2">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="H39" s="28" t="s">
+        <x:v>62</x:v>
+      </x:c>
+      <x:c r="I39" s="2" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="J39" s="27">
+        <x:v>0.00020000000000000001</x:v>
+      </x:c>
+      <x:c r="K39" s="2" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="L39" s="2">
+        <x:v>0.20000000000000001</x:v>
+      </x:c>
+      <x:c r="M39" s="2">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="N39" s="7" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="O39" s="18">
+        <x:v>0.98340000000000005</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="40" spans="2:15">
+      <x:c r="B40" s="6" t="s">
+        <x:v>92</x:v>
+      </x:c>
+      <x:c r="C40" s="2">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="D40" s="2" t="s">
+        <x:v>79</x:v>
+      </x:c>
+      <x:c r="E40" s="2">
+        <x:v>100</x:v>
+      </x:c>
+      <x:c r="F40" s="27">
+        <x:v>0.00010000000000000001</x:v>
+      </x:c>
+      <x:c r="G40" s="2">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="H40" s="28" t="s">
+        <x:v>62</x:v>
+      </x:c>
+      <x:c r="I40" s="2" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="J40" s="27">
+        <x:v>0.00020000000000000001</x:v>
+      </x:c>
+      <x:c r="K40" s="2" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="L40" s="2">
+        <x:v>0.20000000000000001</x:v>
+      </x:c>
+      <x:c r="M40" s="2">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="N40" s="7" t="s">
+        <x:v>103</x:v>
+      </x:c>
+      <x:c r="O40" s="18">
+        <x:v>0.98319999999999996</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="41" spans="2:15">
+      <x:c r="B41" s="6" t="s">
+        <x:v>93</x:v>
+      </x:c>
+      <x:c r="C41" s="2">
+        <x:v>128</x:v>
+      </x:c>
+      <x:c r="D41" s="2" t="s">
+        <x:v>79</x:v>
+      </x:c>
+      <x:c r="E41" s="2">
+        <x:v>100</x:v>
+      </x:c>
+      <x:c r="F41" s="27">
+        <x:v>0.00029999999999999999</x:v>
+      </x:c>
+      <x:c r="G41" s="2">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="H41" s="28" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="I41" s="2" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="J41" s="27">
+        <x:v>0.00010000000000000001</x:v>
+      </x:c>
+      <x:c r="K41" s="2" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="L41" s="2">
+        <x:v>0.29999999999999999</x:v>
+      </x:c>
+      <x:c r="M41" s="2">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="N41" s="7" t="s">
+        <x:v>67</x:v>
+      </x:c>
+      <x:c r="O41" s="18">
+        <x:v>0.9819</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="42" spans="2:15">
+      <x:c r="B42" s="41" t="s">
+        <x:v>94</x:v>
+      </x:c>
+      <x:c r="C42" s="42">
+        <x:v>128</x:v>
+      </x:c>
+      <x:c r="D42" s="42" t="s">
+        <x:v>79</x:v>
+      </x:c>
+      <x:c r="E42" s="42">
+        <x:v>150</x:v>
+      </x:c>
+      <x:c r="F42" s="43">
+        <x:v>0.0010000000000000001</x:v>
+      </x:c>
+      <x:c r="G42" s="42">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="H42" s="44" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="I42" s="42" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="J42" s="43">
+        <x:v>0.00010000000000000001</x:v>
+      </x:c>
+      <x:c r="K42" s="42" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="L42" s="42">
+        <x:v>0.5</x:v>
+      </x:c>
+      <x:c r="M42" s="42">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="N42" s="42" t="s">
+        <x:v>96</x:v>
+      </x:c>
+      <x:c r="O42" s="45">
+        <x:v>0.98499999999999999</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="43" spans="2:15">
+      <x:c r="B43" s="6"/>
+      <x:c r="C43" s="2"/>
+      <x:c r="D43" s="2"/>
+      <x:c r="E43" s="2"/>
+      <x:c r="F43" s="27"/>
+      <x:c r="G43" s="2"/>
+      <x:c r="H43" s="28"/>
+      <x:c r="I43" s="2"/>
+      <x:c r="J43" s="27"/>
+      <x:c r="K43" s="2"/>
+      <x:c r="L43" s="2"/>
+      <x:c r="M43" s="2"/>
+      <x:c r="N43" s="7"/>
+      <x:c r="O43" s="18"/>
+    </x:row>
+    <x:row r="44" spans="2:15">
+      <x:c r="B44" s="6"/>
+      <x:c r="C44" s="2"/>
+      <x:c r="D44" s="2"/>
+      <x:c r="E44" s="2"/>
+      <x:c r="F44" s="27"/>
+      <x:c r="G44" s="2"/>
+      <x:c r="H44" s="28"/>
+      <x:c r="I44" s="2"/>
+      <x:c r="J44" s="27"/>
+      <x:c r="K44" s="2"/>
+      <x:c r="L44" s="2"/>
+      <x:c r="M44" s="2"/>
+      <x:c r="N44" s="7"/>
+      <x:c r="O44" s="18"/>
+    </x:row>
+    <x:row r="45" spans="2:15">
+      <x:c r="B45" s="6" t="s">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="C45" s="20"/>
+      <x:c r="D45" s="20"/>
+      <x:c r="E45" s="20"/>
+      <x:c r="F45" s="20"/>
+      <x:c r="G45" s="20"/>
+      <x:c r="H45" s="20"/>
+      <x:c r="I45" s="20"/>
+      <x:c r="J45" s="20"/>
+      <x:c r="K45" s="20"/>
+      <x:c r="L45" s="20"/>
+      <x:c r="M45" s="20"/>
+      <x:c r="N45" s="21"/>
+      <x:c r="O45" s="18"/>
+    </x:row>
+    <x:row r="46" spans="2:15" ht="15.75" customHeight="1">
+      <x:c r="B46" s="25" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="C46" s="26"/>
+      <x:c r="D46" s="26"/>
+      <x:c r="E46" s="17"/>
+      <x:c r="F46" s="17"/>
+      <x:c r="G46" s="17"/>
+      <x:c r="H46" s="17"/>
+      <x:c r="O46" s="1"/>
+    </x:row>
+    <x:row r="47" spans="2:15" ht="15.75" customHeight="1">
+      <x:c r="B47" s="35" t="s">
+        <x:v>77</x:v>
+      </x:c>
+      <x:c r="C47" s="30"/>
+      <x:c r="D47" s="30"/>
+      <x:c r="E47" s="30"/>
+      <x:c r="F47" s="30"/>
+      <x:c r="G47" s="30"/>
+      <x:c r="H47" s="30"/>
+      <x:c r="I47" s="30"/>
+      <x:c r="J47" s="30"/>
+      <x:c r="K47" s="30"/>
+      <x:c r="L47" s="30"/>
+      <x:c r="M47" s="30"/>
+      <x:c r="N47" s="30"/>
+      <x:c r="O47" s="31"/>
+    </x:row>
+    <x:row r="48" spans="2:15" ht="15.75" customHeight="1">
+      <x:c r="B48" s="29"/>
+      <x:c r="C48" s="30"/>
+      <x:c r="D48" s="30"/>
+      <x:c r="E48" s="30"/>
+      <x:c r="F48" s="30"/>
+      <x:c r="G48" s="30"/>
+      <x:c r="H48" s="30"/>
+      <x:c r="I48" s="30"/>
+      <x:c r="J48" s="30"/>
+      <x:c r="K48" s="30"/>
+      <x:c r="L48" s="30"/>
+      <x:c r="M48" s="30"/>
+      <x:c r="N48" s="30"/>
+      <x:c r="O48" s="31"/>
+    </x:row>
+    <x:row r="49" spans="2:15" ht="15.75" customHeight="1">
+      <x:c r="B49" s="29"/>
+      <x:c r="C49" s="30"/>
+      <x:c r="D49" s="30"/>
+      <x:c r="E49" s="30"/>
+      <x:c r="F49" s="30"/>
+      <x:c r="G49" s="30"/>
+      <x:c r="H49" s="30"/>
+      <x:c r="I49" s="30"/>
+      <x:c r="J49" s="30"/>
+      <x:c r="K49" s="30"/>
+      <x:c r="L49" s="30"/>
+      <x:c r="M49" s="30"/>
+      <x:c r="N49" s="30"/>
+      <x:c r="O49" s="31"/>
+    </x:row>
+    <x:row r="50" spans="2:15" ht="15.75" customHeight="1">
+      <x:c r="B50" s="29"/>
+      <x:c r="C50" s="30"/>
+      <x:c r="D50" s="30"/>
+      <x:c r="E50" s="30"/>
+      <x:c r="F50" s="30"/>
+      <x:c r="G50" s="30"/>
+      <x:c r="H50" s="30"/>
+      <x:c r="I50" s="30"/>
+      <x:c r="J50" s="30"/>
+      <x:c r="K50" s="30"/>
+      <x:c r="L50" s="30"/>
+      <x:c r="M50" s="30"/>
+      <x:c r="N50" s="30"/>
+      <x:c r="O50" s="31"/>
+    </x:row>
+    <x:row r="51" spans="2:15" ht="15.75" customHeight="1">
+      <x:c r="B51" s="29"/>
+      <x:c r="C51" s="30"/>
+      <x:c r="D51" s="30"/>
+      <x:c r="E51" s="30"/>
+      <x:c r="F51" s="30"/>
+      <x:c r="G51" s="30"/>
+      <x:c r="H51" s="30"/>
+      <x:c r="I51" s="30"/>
+      <x:c r="J51" s="30"/>
+      <x:c r="K51" s="30"/>
+      <x:c r="L51" s="30"/>
+      <x:c r="M51" s="30"/>
+      <x:c r="N51" s="30"/>
+      <x:c r="O51" s="31"/>
+    </x:row>
+    <x:row r="52" spans="2:15" ht="15.75" customHeight="1">
+      <x:c r="B52" s="29"/>
+      <x:c r="C52" s="30"/>
+      <x:c r="D52" s="30"/>
+      <x:c r="E52" s="30"/>
+      <x:c r="F52" s="30"/>
+      <x:c r="G52" s="30"/>
+      <x:c r="H52" s="30"/>
+      <x:c r="I52" s="30"/>
+      <x:c r="J52" s="30"/>
+      <x:c r="K52" s="30"/>
+      <x:c r="L52" s="30"/>
+      <x:c r="M52" s="30"/>
+      <x:c r="N52" s="30"/>
+      <x:c r="O52" s="31"/>
+    </x:row>
+    <x:row r="53" spans="2:15" ht="15.75" customHeight="1">
+      <x:c r="B53" s="29"/>
+      <x:c r="C53" s="30"/>
+      <x:c r="D53" s="30"/>
+      <x:c r="E53" s="30"/>
+      <x:c r="F53" s="30"/>
+      <x:c r="G53" s="30"/>
+      <x:c r="H53" s="30"/>
+      <x:c r="I53" s="30"/>
+      <x:c r="J53" s="30"/>
+      <x:c r="K53" s="30"/>
+      <x:c r="L53" s="30"/>
+      <x:c r="M53" s="30"/>
+      <x:c r="N53" s="30"/>
+      <x:c r="O53" s="31"/>
+    </x:row>
+    <x:row r="54" spans="2:15" ht="15.75" customHeight="1">
+      <x:c r="B54" s="29"/>
+      <x:c r="C54" s="30"/>
+      <x:c r="D54" s="30"/>
+      <x:c r="E54" s="30"/>
+      <x:c r="F54" s="30"/>
+      <x:c r="G54" s="30"/>
+      <x:c r="H54" s="30"/>
+      <x:c r="I54" s="30"/>
+      <x:c r="J54" s="30"/>
+      <x:c r="K54" s="30"/>
+      <x:c r="L54" s="30"/>
+      <x:c r="M54" s="30"/>
+      <x:c r="N54" s="30"/>
+      <x:c r="O54" s="31"/>
+    </x:row>
+    <x:row r="55" spans="2:15" ht="15.75" customHeight="1">
+      <x:c r="B55" s="29"/>
+      <x:c r="C55" s="30"/>
+      <x:c r="D55" s="30"/>
+      <x:c r="E55" s="30"/>
+      <x:c r="F55" s="30"/>
+      <x:c r="G55" s="30"/>
+      <x:c r="H55" s="30"/>
+      <x:c r="I55" s="30"/>
+      <x:c r="J55" s="30"/>
+      <x:c r="K55" s="30"/>
+      <x:c r="L55" s="30"/>
+      <x:c r="M55" s="30"/>
+      <x:c r="N55" s="30"/>
+      <x:c r="O55" s="31"/>
+    </x:row>
+    <x:row r="56" spans="2:15" ht="15.75" customHeight="1">
+      <x:c r="B56" s="32"/>
+      <x:c r="C56" s="33"/>
+      <x:c r="D56" s="33"/>
+      <x:c r="E56" s="33"/>
+      <x:c r="F56" s="33"/>
+      <x:c r="G56" s="33"/>
+      <x:c r="H56" s="33"/>
+      <x:c r="I56" s="33"/>
+      <x:c r="J56" s="33"/>
+      <x:c r="K56" s="33"/>
+      <x:c r="L56" s="33"/>
+      <x:c r="M56" s="33"/>
+      <x:c r="N56" s="33"/>
+      <x:c r="O56" s="34"/>
+    </x:row>
+    <x:row r="57" spans="2:15" ht="16.75">
+      <x:c r="B57" s="16" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="C57" s="8"/>
+      <x:c r="D57" s="8"/>
+      <x:c r="E57" s="8"/>
+      <x:c r="F57" s="8"/>
+      <x:c r="G57" s="8"/>
+      <x:c r="H57" s="8"/>
+      <x:c r="I57" s="8"/>
+      <x:c r="J57" s="8"/>
+      <x:c r="K57" s="8"/>
+      <x:c r="L57" s="8"/>
+      <x:c r="M57" s="8"/>
+      <x:c r="N57" s="8"/>
+      <x:c r="O57" s="9"/>
+    </x:row>
+    <x:row r="58" spans="2:15">
+      <x:c r="B58" s="10"/>
+      <x:c r="C58" s="11"/>
+      <x:c r="D58" s="11"/>
+      <x:c r="E58" s="11"/>
+      <x:c r="F58" s="11"/>
+      <x:c r="G58" s="11"/>
+      <x:c r="H58" s="11"/>
+      <x:c r="I58" s="11"/>
+      <x:c r="J58" s="11"/>
+      <x:c r="K58" s="11"/>
+      <x:c r="L58" s="11"/>
+      <x:c r="M58" s="11"/>
+      <x:c r="N58" s="11"/>
+      <x:c r="O58" s="12"/>
+    </x:row>
+    <x:row r="59" spans="2:15">
+      <x:c r="B59" s="10"/>
+      <x:c r="C59" s="11"/>
+      <x:c r="D59" s="11"/>
+      <x:c r="E59" s="11"/>
+      <x:c r="F59" s="11"/>
+      <x:c r="G59" s="11"/>
+      <x:c r="H59" s="11"/>
+      <x:c r="I59" s="11"/>
+      <x:c r="J59" s="11"/>
+      <x:c r="K59" s="11"/>
+      <x:c r="L59" s="11"/>
+      <x:c r="M59" s="11"/>
+      <x:c r="N59" s="11"/>
+      <x:c r="O59" s="12"/>
+    </x:row>
+    <x:row r="60" spans="2:15">
+      <x:c r="B60" s="10"/>
+      <x:c r="C60" s="11"/>
+      <x:c r="D60" s="11"/>
+      <x:c r="E60" s="11"/>
+      <x:c r="F60" s="11"/>
+      <x:c r="G60" s="11"/>
+      <x:c r="H60" s="11"/>
+      <x:c r="I60" s="11"/>
+      <x:c r="J60" s="11"/>
+      <x:c r="K60" s="11"/>
+      <x:c r="L60" s="11"/>
+      <x:c r="M60" s="11"/>
+      <x:c r="N60" s="11"/>
+      <x:c r="O60" s="12"/>
+    </x:row>
+    <x:row r="61" spans="2:15">
+      <x:c r="B61" s="10"/>
+      <x:c r="C61" s="11"/>
+      <x:c r="D61" s="11"/>
+      <x:c r="E61" s="11"/>
+      <x:c r="F61" s="11"/>
+      <x:c r="G61" s="11"/>
+      <x:c r="H61" s="11"/>
+      <x:c r="I61" s="11"/>
+      <x:c r="J61" s="11"/>
+      <x:c r="K61" s="11"/>
+      <x:c r="L61" s="11"/>
+      <x:c r="M61" s="11"/>
+      <x:c r="N61" s="11"/>
+      <x:c r="O61" s="12"/>
+    </x:row>
+    <x:row r="62" spans="2:15">
+      <x:c r="B62" s="10"/>
+      <x:c r="O62" s="12"/>
+    </x:row>
+    <x:row r="63" spans="2:15">
+      <x:c r="B63" s="10"/>
+      <x:c r="O63" s="12"/>
+    </x:row>
+    <x:row r="64" spans="2:15">
+      <x:c r="B64" s="10"/>
+      <x:c r="O64" s="12"/>
+    </x:row>
+    <x:row r="65" spans="2:15">
+      <x:c r="B65" s="10"/>
+      <x:c r="O65" s="12"/>
+    </x:row>
+    <x:row r="66" spans="2:15">
+      <x:c r="B66" s="10"/>
+      <x:c r="O66" s="12"/>
+    </x:row>
+    <x:row r="67" spans="2:15">
+      <x:c r="B67" s="10"/>
+      <x:c r="O67" s="12"/>
+    </x:row>
+    <x:row r="68" spans="2:15">
+      <x:c r="B68" s="10"/>
+      <x:c r="M68" s="19"/>
+      <x:c r="O68" s="12"/>
+    </x:row>
+    <x:row r="69" spans="2:15">
+      <x:c r="B69" s="10"/>
+      <x:c r="O69" s="12"/>
+    </x:row>
+    <x:row r="70" spans="2:15">
+      <x:c r="B70" s="10"/>
+      <x:c r="O70" s="12"/>
+    </x:row>
+    <x:row r="71" spans="2:15" ht="16.75">
+      <x:c r="B71" s="13"/>
+      <x:c r="C71" s="14"/>
+      <x:c r="D71" s="14"/>
+      <x:c r="E71" s="14"/>
+      <x:c r="F71" s="14"/>
+      <x:c r="G71" s="14"/>
+      <x:c r="H71" s="14"/>
+      <x:c r="I71" s="14"/>
+      <x:c r="J71" s="14"/>
+      <x:c r="K71" s="14"/>
+      <x:c r="L71" s="14"/>
+      <x:c r="M71" s="14"/>
+      <x:c r="N71" s="14"/>
+      <x:c r="O71" s="15"/>
     </x:row>
   </x:sheetData>
   <x:mergeCells count="3">
     <x:mergeCell ref="B2:O2"/>
-    <x:mergeCell ref="B12:D12"/>
-    <x:mergeCell ref="B13:O22"/>
+    <x:mergeCell ref="B46:D46"/>
+    <x:mergeCell ref="B47:O56"/>
   </x:mergeCells>
   <x:pageMargins left="0.69999998807907104492" right="0.69999998807907104492" top="0.75" bottom="0.75" header="0.51166665554046630859" footer="0.51166665554046630859"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="300" verticalDpi="300" copies="1"/>
